--- a/Archivos/archivo2_656ea76570cec.xlsx
+++ b/Archivos/archivo2_656ea76570cec.xlsx
@@ -19,594 +19,846 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="280">
+  <si>
+    <t>Subgerencia de Planeación, Proyectos y Construcción</t>
+  </si>
+  <si>
+    <t>Investigación de Condiciones de Mercado</t>
+  </si>
+  <si>
+    <t>Fecha (dd/mm/aaaa)</t>
+  </si>
+  <si>
+    <t>Zona:</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>Obra:</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>N°</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Unidad</t>
+  </si>
+  <si>
+    <t>PU</t>
+  </si>
+  <si>
+    <t>Importe</t>
+  </si>
+  <si>
+    <t>Poda de Arbol tipo "A"</t>
+  </si>
+  <si>
+    <t>Árbol</t>
+  </si>
+  <si>
+    <t>$216.81</t>
+  </si>
+  <si>
+    <t>$0.00</t>
+  </si>
+  <si>
+    <t>Poda de Arbol tipo "B"</t>
+  </si>
+  <si>
+    <t>$296.62</t>
+  </si>
+  <si>
+    <t>Suministro e Instalación de Poste de Concreto de 13 metros, incluye traslado desde el almacén de contratista hasta la obra, mano de obra de instalacion y reparación de banqueta igual a la existente.</t>
+  </si>
+  <si>
+    <t>Popo</t>
+  </si>
+  <si>
+    <t>Poste</t>
+  </si>
+  <si>
+    <t>$10,624.85</t>
+  </si>
+  <si>
+    <t>Suministro e Instalación de Poste de Concreto de 12 metros, incluye traslado desde el almacén de contratista hasta la obra, mano de obra de instalacion y reparación de banqueta igual a la existente.</t>
+  </si>
+  <si>
+    <t>$10,624.86</t>
+  </si>
+  <si>
+    <t>Suministro e Instalación de Poste de Concreto de 9 metros, incluye traslado desde el almacén de contratista hasta la obra, mano de obra de instalacion y reparación de banqueta igual a la existente.</t>
+  </si>
+  <si>
+    <t>$6,011.96</t>
+  </si>
+  <si>
+    <t>Instalación de poste de concreto, (CFE suministra poste), cualquier medida en cualquier terreno, incluye traslado desde el almacen de CFE hasta la obra, su distribucion e instalacion, mano de obra de excavacion, instalacion, reparacion de banqueta, retiro de escombro producto de la excavacion.</t>
+  </si>
+  <si>
+    <t>$2,396.10</t>
+  </si>
+  <si>
+    <t>$88,655.62</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de retenida RSA; incluye la excavación de la cepa, reparación de banqueta y retiro de escombro, suministro y traslado de los materiales hasta el punto de la obra.</t>
+  </si>
+  <si>
+    <t>Retenida</t>
+  </si>
+  <si>
+    <t>$2,886.45</t>
+  </si>
+  <si>
+    <t>$28,864.54</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de retenida RDA, incluye la excavación de la cepa, reparación de banqueta y retiro de escombro, suministro y traslado de los materiales hasta el punto de la obra.</t>
+  </si>
+  <si>
+    <t>$3,750.37</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de retenida RPP; incluye suministro y traslado de los materiales hasta el punto de la obra.</t>
+  </si>
+  <si>
+    <t>$2,644.27</t>
+  </si>
+  <si>
+    <t>$7,932.82</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de retenida REA; incluye la excavación de las cepas, poste de concreto de 7-500, reparación de banqueta y retiro de escombro, suministro y traslado de los materiales hasta el punto de la obra</t>
+  </si>
+  <si>
+    <t>$7,839.33</t>
+  </si>
+  <si>
+    <t>$23,517.99</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de retenida REA; incluye la excavación de las cepas, reparación de banqueta y retiro de escombro, suministro y traslado de los materiales hasta el punto de la obra. (contratista suministra poste de 9 metros)</t>
+  </si>
+  <si>
+    <t>$8,323.72</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de retenida RBA; incluye la excavación de la cepa, reparacion de banqueta y retiro de escombro, suministro y traslado de los materiales hasta el punto de la obra.</t>
+  </si>
+  <si>
+    <t>$3,371.96</t>
+  </si>
+  <si>
+    <t>$47,207.37</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de retenida RVP, incluye suministro y traslado de los materiales hasta el punto de la obra.</t>
+  </si>
+  <si>
+    <t>$4,975.86</t>
+  </si>
+  <si>
+    <t>$19,903.43</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de retenida RVE; incluye la excavación de las cepas, poste de concreto de 7-400, reparación de la banqueta y retiro de escombro, suministro y traslado de los materiales hasta el punto de la obra</t>
+  </si>
+  <si>
+    <t>$8,963.74</t>
+  </si>
+  <si>
+    <t>$71,709.88</t>
+  </si>
+  <si>
+    <t>Rehabilitar retenida RSA, comprende el suministro e instalación de los materiales necesarios para su elaboración conforme a Normas, utilizando el perno 1PA existente.</t>
+  </si>
+  <si>
+    <t>$2,132.78</t>
+  </si>
+  <si>
+    <t>$4,265.57</t>
+  </si>
+  <si>
+    <t>Rehabilitar retenida REA, comprende el suministro e instalación de los materiales necesarios para su elaboración conforme a Normas (utilizando el mismo PC7-500 en buenas condiciones), utilizando el perno 1PA existente.</t>
+  </si>
+  <si>
+    <t>$3,900.92</t>
+  </si>
+  <si>
+    <t>Rehabilitar retenida RBA, comprende el suministro e instalación de los materiales necesarios para su elaboración conforme a Normas, utilizando el perno 1PA existente.</t>
+  </si>
+  <si>
+    <t>$2,725.93</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura TS30, aislada para 13 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>Estructura</t>
+  </si>
+  <si>
+    <t>$4,313.13</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura TS30, aislada para 23 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura TS30, aislada para 33 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura TS20, aislada para 13 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>$3,378.90</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura TS20, aislada para 23 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura TS20, aislada para 33 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura TD30, aislada para 13 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>$8,053.17</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura TD30, aislada para 23 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura TD30, aislada para 33 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura TD20, aislada para 13 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>$5,884.52</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura TD20, aislada para 23 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura TD20, aislada para 33 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura RD30, aislada para 13 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>$7,178.17</t>
+  </si>
+  <si>
+    <t>$28,712.70</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura RD30, aislada para 23 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura RD30, aislada para 33 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura RD20, aislada para 13 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>$6,443.71</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura RD20, aislada para 23 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura RD20, aislada para 33 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura VS30, aislada para 13 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>$5,157.40</t>
+  </si>
+  <si>
+    <t>$61,888.80</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura VS30, aislada para 23 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura VS30, aislada para 33 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura VR30, aislada para 13 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>$7,975.14</t>
+  </si>
+  <si>
+    <t>$63,801.12</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura VR30, aislada para 23 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura VR30, aislada para 33 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura VD30, aislada para 13 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>$9,959.77</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura VD30, aislada para 23 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura VD30, aislada para 33 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura VA30, aislada para 13 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>$13,827.85</t>
+  </si>
+  <si>
+    <t>$82,967.08</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura VA30, aislada para 23 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura VA30, aislada para 33 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura VS20, aislada para 13 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>$5,026.97</t>
+  </si>
+  <si>
+    <t>$10,053.93</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura VS20, aislada para 23 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura VS20, aislada para 33 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura VR20, aislada para 13 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>$7,257.64</t>
+  </si>
+  <si>
+    <t>$14,515.28</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura VR20, aislada para 23 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura VR20, aislada para 33 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura VD20, aislada para 13 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>$8,483.73</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura VD20, aislada para 23 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura VD20, aislada para 33 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura VA20, aislada para 13 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>$13,039.48</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura VA20, aislada para 23 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura VA20, aislada para 33 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura AD30, aislada para 13 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>$12,405.10</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura AD30, aislada para 23 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura AD30, aislada para 33 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura AD20, aislada para 13 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>$11,643.65</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura AD20, aislada para 23 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura AD20, aislada para 33 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura 1P1, incluye: el traslado de los materiales al sitio de la estructura.</t>
+  </si>
+  <si>
+    <t>$409.45</t>
+  </si>
+  <si>
+    <t>$1,228.36</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura 1R1, incluye: el traslado de los materiales al sitio de la estructura.</t>
+  </si>
+  <si>
+    <t>$578.84</t>
+  </si>
+  <si>
+    <t>$12,155.62</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura 1P3, incluye: el traslado de los materiales al sitio de la estructura.</t>
+  </si>
+  <si>
+    <t>$1,539.42</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura 1R3, incluye: el traslado de los materiales al sitio de la estructura.</t>
+  </si>
+  <si>
+    <t>$1,193.26</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura 1PR3, incluye: el traslado de los materiales al sitio de la estructura.</t>
+  </si>
+  <si>
+    <t>$1,726.58</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura 1R3-1R3, incluye: el traslado de los materiales al sitio de la estructura.</t>
+  </si>
+  <si>
+    <t>$1,862.86</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura 1P4, incluye: el traslado de los materiales al sitio de la estructura.</t>
+  </si>
+  <si>
+    <t>$1,767.93</t>
+  </si>
+  <si>
+    <t>$8,839.64</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura 1R4, incluye: el traslado de los materiales al sitio de la estructura.</t>
+  </si>
+  <si>
+    <t>$1,375.17</t>
+  </si>
+  <si>
+    <t>$24,753.12</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de estructura 1PR4, incluye: el traslado de los materiales al sitio de la estructura.</t>
+  </si>
+  <si>
+    <t>$2,200.46</t>
+  </si>
+  <si>
+    <t>Suministro e instalción de estructura 1R4-1R4, incluye: el traslado de los materiales al sitio de la estructura.</t>
+  </si>
+  <si>
+    <t>$2,453.69</t>
+  </si>
+  <si>
+    <t>$24,536.91</t>
+  </si>
+  <si>
+    <t>Suministro, Tendido y tensionado de conductor desnudo en media tensión ACSR 1/0 AWG, incluye el traslado desde el almacén de contratista hasta la obra y el suministro de los conectores a compresión tipo recto y derivación para elaborar conexiones en puentes y derivaciones, así como Alambre AS cal 4 AWG para los amarres.</t>
+  </si>
+  <si>
+    <t>Kg</t>
+  </si>
+  <si>
+    <t>Tendido y tensionado de conductor desnudo en media tensión ACSR 1/0 AWG, incluye el traslado desde el almacén de CFE hasta la obra y el suministro de los conectores a compresión tipo recto y derivación para elaborar conexiones en puentes y derivaciones, así como Alambre AS cal 4 AWG para los amarres.</t>
+  </si>
+  <si>
+    <t>Suministro, Tendido y tensionado de conductor desnudo en media tensión ACSR 3/0 AWG, incluye el traslado desde el almacén de contratista hasta la obra y el suministro de los conectores a compresión tipo recto y derivación para elaborar conexiones en puentes y derivaciones, así como Alambre AS cal 4 AWG para los amarres.</t>
+  </si>
+  <si>
+    <t>Tendido y tensionado de conductor desnudo en media tensión ACSR 3/0 AWG, incluye el traslado desde el almacén de CFE hasta la obra y el suministro de los conectores a compresión tipo recto y derivación para elaborar conexiones en puentes y derivaciones, así como Alambre AS cal 4 AWG para los amarres.</t>
+  </si>
+  <si>
+    <t>Suministro, Tendido y tensionado de conductor desnudo en media tensión ACSR calibre 336 AWG, incluye el traslado desde el almacén del contratista hasta la obra y el suministro de los conectores a compresión tipo recto y derivación para elaborar conexiones en puentes y derivaciones, así como Alambre AS cal 2 AWG para los amarres.</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>Tendido y tensionado de conductor desnudo en media tensión ACSR calibre 336 AWG, incluye el traslado desde el almacén de CFE hasta la obra y el suministro de los conectores a compresión tipo recto y derivación para elaborar conexiones en puentes y derivaciones, así como Alambre AS cal 2 AWG para los amarres.</t>
+  </si>
+  <si>
+    <t>Suministro, Tendido y tensionado de cable semiaislado en media tensión ACSR calibre de 1/0 AWG 13kV, incluye el traslado desde el almacén de contratista hasta la obra y el suministro de los conectores a compresión tipo recto y derivación para elaborar conexiones en puentes y derivaciones, así como amarres no metálicos.</t>
+  </si>
+  <si>
+    <t>Mt</t>
+  </si>
+  <si>
+    <t>Tendido y tensionado de cable semiaislado en media tensión ACSR calibre de 1/0 a 3/0 AWG, incluye el traslado desde el almacén de CFE hasta la obra y el suministro de los conectores a compresión tipo recto y derivación para elaborar conexiones en puentes y derivaciones, así como amarres no metálicos.</t>
+  </si>
+  <si>
+    <t>Suministro, Tendido y tensionado de cable semiaislado en media tensión ACSR calibre de 1/0 AWG 23kV, incluye el traslado desde el almacén de contratista hasta la obra y el suministro de los conectores a compresión tipo recto y derivación para elaborar conexiones en puentes y derivaciones, así como amarres no metálicos.</t>
+  </si>
+  <si>
+    <t>Suministro, Tendido y tensionado de conductor desnudo en media tensión AAC calibre de 266 AWG, incluye el traslado desde el almacén de CFE hasta la obra y el suministro de los conectores a compresión tipo recto y derivación para elaborar conexiones en puentes y derivaciones, así como Alambre AS cal 2 AWG para los amarres.</t>
+  </si>
+  <si>
+    <t>Suministro, Tendido y tensionado de cable semiaislado en media tensión AAC calibre 266 AWG, incluye el traslado desde el almacén de CFE hasta la obra y el suministro de los conectores a compresión tipo recto y derivación para elaborar conexiones en puentes y derivaciones, así como amarres no metálicos.</t>
+  </si>
+  <si>
+    <t>Elaboración de puentes al vuelo en crucero media tensión cal 1/0-336 3F-4H; incluye suministro e instalación de conectores a compresión y cable para los puentes</t>
+  </si>
+  <si>
+    <t>Pieza</t>
+  </si>
+  <si>
+    <t>$2,075.79</t>
+  </si>
+  <si>
+    <t>$4,151.57</t>
+  </si>
+  <si>
+    <t>Suministro, Tendido y tensionado de cable múltiple AL-ACSR (2+1)3/0-1/0C para baja tensión, cualquier configuración y calibre, incluye el traslado desde el almacén de contratista</t>
+  </si>
+  <si>
+    <t>Suministro, Tendido y tensionado de cable múltiple AL-ACSR (3+1)3/0-1/0C para baja tensión, cualquier configuración y calibre, incluye el traslado desde el almacén de contratista</t>
+  </si>
+  <si>
+    <t>Tendido y tensionado de cable múltiple para baja tensión, cualquier configuración y calibre, incluye traslado desde el almacén de CFE</t>
+  </si>
+  <si>
+    <t>1,366</t>
+  </si>
+  <si>
+    <t>$27.56</t>
+  </si>
+  <si>
+    <t>$37,646.22</t>
+  </si>
+  <si>
+    <t>Suministro e Instalación de estructura 1TR2A, incluye suministro de herrajes y materiales consumibles, MO para su instalación y montaje de equipos y (Contratista suministra CCF y ADOM en 13 kV)</t>
+  </si>
+  <si>
+    <t>$17,581.86</t>
+  </si>
+  <si>
+    <t>$35,163.73</t>
+  </si>
+  <si>
+    <t>Suministro e Instalación de estructura 1TR2A, incluye suministro de herrajes y materiales consumibles, MO para su instalación y montaje de equipos y (Contratista suministra CCF y ADOM en 23kV)</t>
+  </si>
+  <si>
+    <t>Suministro e Instalación de estructura 1TR2A, incluye suministro de herrajes y materiales consumibles, MO para su instalación y montaje de equipos y (Contratista suministra CCF y ADOM en 33kV)</t>
+  </si>
+  <si>
+    <t>Suministro e Instalación de estructura 1TR3A, incluye suministro de herrajes y materiales consumibles, MO para su instalación y montaje de equipos (Contratista suministra CCF y ADOM en 13 kV )</t>
+  </si>
+  <si>
+    <t>$22,922.96</t>
+  </si>
+  <si>
+    <t>$183,383.64</t>
+  </si>
+  <si>
+    <t>Suministro e Instalación de estructura 1TR3A, incluye suministro de herrajes y materiales consumibles, MO para su instalación y montaje de equipos (Contratista suministra CCF y ADOM en 23kV)</t>
+  </si>
+  <si>
+    <t>Suministro e Instalación de estructura 1TR3A, incluye suministro de herrajes y materiales consumibles, MO para su instalación y montaje de equipos (Contratista suministra CCF y ADOM en 33kV)</t>
+  </si>
+  <si>
+    <t>Suministro e Instalación de TRANSF D1-10-13200-120/240 en estructura existente, incluye traslado desde el almacén de Contratista, maniobras de montaje, mano de obra de conexión (Instalacion de BUS 3/0-1/0) Rótulo de Nº de Área y Nº de Economico.</t>
+  </si>
+  <si>
+    <t>Suministro e Instalación de TRANSF D1-15-13200-120/240 en estructura existente, incluye traslado desde el almacén de Contratista, maniobras de montaje, mano de obra de conexión (Instalacion de BUS 3/0-1/0) Rótulo de Nº de Área y Nº de Economico.</t>
+  </si>
+  <si>
+    <t>Suministro e Instalación de TRANSF D1-25-13200-120/240 en estructura existente, incluye traslado desde el almacén de Contratista, maniobras de montaje, mano de obra de conexión (Instalacion de BUS 3/0-1/0) Rótulo de Nº de Área y Nº de Economico.</t>
+  </si>
+  <si>
+    <t>Suministro e Instalación de TRANSF D1-37,5-13200-120/240 en estructura existente, incluye traslado desde el almacén de Contratista, maniobras de montaje, mano de obra de conexión (Instalacion de BUS 3/0-1/0) Rótulo de Nº de Área y Nº de Economico.</t>
+  </si>
+  <si>
+    <t>Suministro e Instalación deTRANSF D3-15-13200-220Y/127 en estructura existente, incluye traslado desde el almacén de Contratista, maniobras de montaje, mano de obra de conexión (Instalacion de BUS 3/0-1/0) Rótulo de Nº de Área y Nº de Economico.</t>
+  </si>
+  <si>
+    <t>Suministro e Instalación de TRANSF D3-30-13200-220Y/127 en estructura existente, incluye traslado desde el almacén de Contratista, maniobras de montaje, mano de obra de conexión (Instalacion de BUS 3/0-1/0) Rótulo de Nº de Área y Nº de Economico.</t>
+  </si>
+  <si>
+    <t>Suministro e Instalación de TRANSF D3-45-13200-220Y/127 en estructura existente, incluye traslado desde el almacén de Contratista, maniobras de montaje, mano de obra de conexión (Instalacion de BUS 3/0-1/0) Rótulo de Nº de Área y Nº de Economico.</t>
+  </si>
+  <si>
+    <t>Suministro e Instalación de TRANSF D1-10-23000-120/240 en estructura existente, incluye traslado desde el almacén de Contratista, maniobras de montaje, mano de obra de conexión (Instalacion de BUS 3/0-1/0) Rótulo de Nº de Área y Nº de Economico.</t>
+  </si>
+  <si>
+    <t>Suministro e Instalación de TRANSF D1-15-23000-120/240 en estructura existente, incluye traslado desde el almacén de Contratista, maniobras de montaje, mano de obra de conexión (Instalacion de BUS 3/0-1/0) Rótulo de Nº de Área y Nº de Economico.</t>
+  </si>
+  <si>
+    <t>Suministro e Instalación deTRANSF D3-15-23000-220Y/127 en estructura existente, incluye traslado desde el almacén de Contratista, maniobras de montaje, mano de obra de conexión (Instalacion de BUS 3/0-1/0) Rótulo de Nº de Área y Nº de Economico.</t>
+  </si>
+  <si>
+    <t>Suministro e Instalación de TRANSF D3-30-23000-220Y/127 en estructura existente, incluye traslado desde el almacén de Contratista, maniobras de montaje, mano de obra de conexión (Instalacion de BUS 3/0-1/0) Rótulo de Nº de Área y Nº de Economico.</t>
+  </si>
+  <si>
+    <t>Suministro e Instalación de TRANSF D1-10-33000-120/240 en estructura existente, incluye traslado desde el almacén de Contratista, maniobras de montaje, mano de obra de conexión (Instalacion de BUS 3/0-1/0) Rótulo de Nº de Área y Nº de Economico.</t>
+  </si>
+  <si>
+    <t>Suministro e Instalación de TRANSF D1-15-33000-120/240 en estructura existente, incluye traslado desde el almacén de Contratista, maniobras de montaje, mano de obra de conexión (Instalacion de BUS 3/0-1/0) Rótulo de Nº de Área y Nº de Economico.</t>
+  </si>
+  <si>
+    <t>Suministro e Instalación deTRANSF D3-15-33000-220Y/127 en estructura existente, incluye traslado desde el almacén de Contratista, maniobras de montaje, mano de obra de conexión (Instalacion de BUS 3/0-1/0) Rótulo de Nº de Área y Nº de Economico.</t>
+  </si>
+  <si>
+    <t>Suministro e Instalación de TRANSF D3-30-33000-220Y/127 en estructura existente, incluye traslado desde el almacén de Contratista, maniobras de montaje, mano de obra de conexión (Instalacion de BUS 3/0-1/0) Rótulo de Nº de Área y Nº de Economico.</t>
+  </si>
+  <si>
+    <t>Instalación de transformador monofasico; CFE suministra el equipo; Incluye: acarreo desde el almacén de CFE hasta el sitio de la obra, maniobras de instalación y todo el herraje necesario para su correcto funcionamiento.</t>
+  </si>
+  <si>
+    <t>$1,411.21</t>
+  </si>
+  <si>
+    <t>$2,822.42</t>
+  </si>
+  <si>
+    <t>Instalación de transformador trifásico; CFE suministra el equipo; Incluye: acarreo desde el almacén de CFE hasta el sitio de la obra, maniobras de instalación y todo el herraje necesario para su correcto funcionamiento.</t>
+  </si>
+  <si>
+    <t>$1,612.81</t>
+  </si>
+  <si>
+    <t>$12,902.51</t>
+  </si>
+  <si>
+    <t>Retiro e instalación de transformador trifásico, ya sea en el mismo poste o en poste diferente, comprende las maniobras de desconexión, retiro, instalación y conexión del equipo, Rótulo de Nº de Área y Nº de Economico.</t>
+  </si>
+  <si>
+    <t>$2,052.67</t>
+  </si>
+  <si>
+    <t>Retiro e instalación de transformador monofásico, ya sea en el mismo poste o en poste diferente, comprende las maniobras de desconexión, retiro, instalación y conexión del equipo, Rótulo de Nº de Área y Nº de Economico.</t>
+  </si>
+  <si>
+    <t>$2,508.82</t>
+  </si>
+  <si>
+    <t>Suministro de materiales y elaboración de Bus de secundario de transformador a red secundaria 3F-4H, formada por conductor de cobre forrado CUF 3/0 AWG para las fases y 1/0 AWG para neutro; incluye suministro de los conectadores derivadores tipo "L", considerar 2m de Bus.</t>
+  </si>
+  <si>
+    <t>$4,310.35</t>
+  </si>
+  <si>
+    <t>Suministro de materiales y elaboración de Bus de secundario de transformador a red secundaria 2F-3H, formada por conductor de cobre forrado CUF 3/0 AWG para las fases y 1/0 AWG para neutro; incluye suministro de los conectadores derivadores tipo "L", considerar 2m de Bus.</t>
+  </si>
+  <si>
+    <t>$3,926.83</t>
+  </si>
+  <si>
+    <t>Suministro y montaje de estructura 3CF3A en 13kV, incluye suministro e instalación de rótulo de Nº de Sitio.</t>
+  </si>
+  <si>
+    <t>$13,881.67</t>
+  </si>
+  <si>
+    <t>Suministro e Instalacion de CCF en estructura existente 13kV, incluye: mano de obra de instalación, suministro de conector derivador estribo cal 336, CCF, conector LV y CFE Suministra (cable Cu 2 para 2 puentes de 1.5 m.)</t>
+  </si>
+  <si>
+    <t>$3,216.75</t>
+  </si>
+  <si>
+    <t>$9,650.24</t>
+  </si>
+  <si>
+    <t>Suministro e Instalacion de CCF en estructura existente 23kV, incluye: mano de obra de instalación, suministro de conector derivador estribo cal 336, CCF, conector LV, cable Cu 2 para 2 puentes de 1.5 m.</t>
+  </si>
+  <si>
+    <t>Suministro e Instalacion de CCF en estructura existente 33kV, incluye: mano de obra de instalación, suministro de conector derivador estribo cal 336, CCF, conector LV, cable Cu 2 para 2 puentes de 1.5 m.</t>
+  </si>
+  <si>
+    <t>Retiro e instalación de cortacircuito fusible CCF, en misma o diferente estructura, incluye suministro de conector LV, cable de CU2 para conexión y mano de obra.</t>
+  </si>
+  <si>
+    <t>Suministro e Instalación de ADOM en estructura existente 13kV, y lo necesario para su instalacion.</t>
+  </si>
+  <si>
+    <t>Suministro e Instalación de ADOM en estructura existente 23kV, y lo necesario para su instalacion.</t>
+  </si>
+  <si>
+    <t>Suministro e Instalación de ADOM en estructura existente 33kV, y lo necesario para su instalacion.</t>
+  </si>
+  <si>
+    <t>Retiro e instalación de apartarrayo en misma o diferente estructura, incl. materiales, mano de obra y herramienta.</t>
+  </si>
+  <si>
+    <t>Suministro y elaboración de Sistema de Tierra con valores conforme a las Normas de Construcción, formado mínimo por 3 electrodos, Cable ACS 7 N9 y soldadura exotérmica. (Incluye Bajante desde equipo y conexión).</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de bajante (Cable ACS 7 N9 y soldadura exotérmica) y electrodo de tierra, incluye cepa y reparación del terreno en el sitio de su instalación.</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de acometida aérea hasta la base de medición, incluye: suministro, tendido y tensionado del cable de acometida (1+1)6 AAC (aprox 28 m) y conectador tipo cuña (UDC)</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de acometida aérea hasta la base de medición, incluye: suministro, tendido y tensionado del cable de acometida (2+1)6 AAC (aprox 28 m) y conectador tipo cuña (UDC)</t>
+  </si>
+  <si>
+    <t>Acometida</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de acometida aérea hasta la base de medición, incluye: suministro, tendido y tensionado del cable de acometida (3+1)6 AAC (aprox 28 m) y conectador tipo cuña (UDC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retiro e instalación de acometida existente aérea (sobre mismo poste), comprende la desconexión, retiro y tensionado de acometida existente y suministro de conectadores tipo cuña (UDC). </t>
+  </si>
+  <si>
+    <t>Retiro e instalación de acometida existente aérea (sobre poste diferente), comprende la desconexión, retiro y tensionado de acometida existente, empalme de conductor y suministro de conectadores tipo cuña (UDC), considerando ampliación de acometida.</t>
+  </si>
+  <si>
+    <t>Retiro de acometida aérea incluyendo el cable del interior del tubo conduit; considerar el embobinado y traslado hasta el almacén de CFE.</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de preparación domiciliaria, preparada por base tipo soquet, tubo conduit 32mm, mufa seca 32mm, electrodo de tierra de 1.5m y tubo conduit 12mm, para alojar el cable de conexión a tierra.</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de murete sencillo para recepción de acometida, incl interruptor termomagnético, cable forrado de cobre cuf 8 y electrodo de tierra de 1.5 mts.</t>
+  </si>
+  <si>
+    <t>Murete</t>
+  </si>
+  <si>
+    <t>Retiro e Instalacion de poste de concreto cualquier medida,  incluye mano de obra de excavación, retiro, instalación, reparación de banqueta y retiro de escombro producto de la excavación.</t>
+  </si>
+  <si>
+    <t>Retiro de poste, incluye traslado hasta el almacén de CFE y reparación de banqueta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Retiro de bastidores, incluye traslado hasta el almacén de CFE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Retiro de crucetas tipo "P", incluye traslado hasta el almacén de CFE</t>
+  </si>
+  <si>
+    <t>Retiro de aisladores primarios, incluye traslado hasta el almacén de CFE</t>
+  </si>
+  <si>
+    <t>Retiro de Conductores, incluye el embobinado en carretes y traslado hasta el almacén de CFE.</t>
+  </si>
+  <si>
+    <t>Kgs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Retiro de equipo menor, incluye traslado hasta el almacén de CFE</t>
+  </si>
+  <si>
+    <t>Retiro de equipo mayor, incluye traslado hasta el almacén de CFE</t>
+  </si>
+  <si>
+    <t>Retiro de retenidas cualquier tipo, incluye el traslado de materiales al almacén de CFE, el corte del perno Ancla 1PA, la reparación de la banqueta o terreno en el punto de trabajo similar al existente.</t>
+  </si>
+  <si>
+    <t>Elaboración de plano definitivo en DEPRORED, Georeferenciado incluyendo coordenadas con GPS. (Entregar DEPRORED por cada estimación de los trabajos ejecutados, el cual se pagara al término del contrato como 1 Lote).</t>
+  </si>
+  <si>
+    <t>Lote</t>
+  </si>
+  <si>
+    <t>Pruebas de Campo, comprende pruebas de puesta en servicio en la red (medición a sistemas de tierra y tensiones, en el equipo y en remates), entregando reporte por área de transformación.</t>
+  </si>
+  <si>
+    <t>Prueba</t>
+  </si>
+  <si>
+    <t>Rotulado preventivo de postes, hasta 1.5 m del piso de acuerdo a lo indicado en las normas de construcción, fondo amarillo y franjas negras</t>
+  </si>
+  <si>
+    <t>Rotulado de postes, de acuerdo a lo indicado en las normas de construcción, fondo amarillo con letras y números negros.</t>
+  </si>
+  <si>
+    <t>Replomear Poste, incluye reparación de banqueta o terreno similar al existente.</t>
+  </si>
+  <si>
+    <t>Tensionado de conductores existentes</t>
+  </si>
+  <si>
+    <t>Claro interpostal</t>
+  </si>
+  <si>
+    <t>Elaborar doble remate en Baja Tensión Red Abierta, incluye suministro de herrajes, aisladores, conectadores para acometidas y remates preformados</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de Grapa Remate RAL-8.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Suministro e instalación de aislador 13SHL45N</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Suministro e instalación de aislador 23SHL45N</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Suministro e instalación de aislador 33SHL45N</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Suministro e instalación de aislador 13PD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Suministro e instalación de aislador 23PD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Suministro e instalación de aislador 33PD</t>
+  </si>
+  <si>
+    <t>Retiro e instalación de bastidor de baja tensión, en mismo o diferente sitio, incluye la mano de obra de retiro e instalación de la estructura y armado del tipo de estructura de la que se trate, (paso o remate).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adecuación de sitio para trabajos sobre línea energizada (Intercalado por parte de CFE). Incluye suministro y traslado de poste PCR-13-600, excavación de la cepa, mano de obra y materiales para reparación de baqueta y retiro de material producto de la excavación.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adecuación de sitio para trabajos sobre línea energizada (Intercalado por parte de CFE). Incluye suministro y traslado de poste PCR-12-750, excavación de la cepa, mano de obra y materiales para reparación de baqueta y retiro de material producto de la excavación.  </t>
+  </si>
+  <si>
+    <t>Suministro e instalacion de conector tipo estribo Cal. 336, incluye conector perico, alambre de cobre y conector cil 1/0 T.M.</t>
+  </si>
+  <si>
+    <t>Importe CFE</t>
+  </si>
+  <si>
+    <t>Elaboró:</t>
+  </si>
+  <si>
+    <t>Autorizo:</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Zona</t>
+  </si>
+  <si>
+    <t>Superintendente de Zona</t>
+  </si>
   <si>
     <t>División de Distribución Jalisco</t>
-  </si>
-  <si>
-    <t>Subgerencia de Planeación, Proyectos y Construcción</t>
-  </si>
-  <si>
-    <t>Investigación de Condiciones de Mercado</t>
-  </si>
-  <si>
-    <t>Fecha (dd/mm/aaaa)</t>
-  </si>
-  <si>
-    <t>Zona:</t>
-  </si>
-  <si>
-    <t>Obra:</t>
-  </si>
-  <si>
-    <t>N°</t>
-  </si>
-  <si>
-    <t>Descripción</t>
-  </si>
-  <si>
-    <t>Cantidad</t>
-  </si>
-  <si>
-    <t>Unidad</t>
-  </si>
-  <si>
-    <t>PU</t>
-  </si>
-  <si>
-    <t>Importe</t>
-  </si>
-  <si>
-    <t>Poda de Arbol tipo "A"</t>
-  </si>
-  <si>
-    <t>Árbol</t>
-  </si>
-  <si>
-    <t>Poda de Arbol tipo "B"</t>
-  </si>
-  <si>
-    <t>Suministro e Instalación de  Poste de  Concreto de  13 metros, incluye traslado desde el almacén de  contratista hasta la obra,  mano de obra de instalacion y reparación de  banqueta igual a la existente.</t>
-  </si>
-  <si>
-    <t>Popo</t>
-  </si>
-  <si>
-    <t>Poste</t>
-  </si>
-  <si>
-    <t>Suministro e Instalación de  Poste de  Concreto de  12 metros, incluye traslado desde el almacén de  contratista hasta la obra,  mano de obra de instalacion y reparación de  banqueta igual a la existente.</t>
-  </si>
-  <si>
-    <t>Suministro e Instalación de  Poste de  Concreto de  9 metros, incluye traslado desde el almacén de  contratista hasta la obra,  mano de obra de instalacion y reparación de  banqueta igual a la existente.</t>
-  </si>
-  <si>
-    <t>Instalación de  poste de  concreto, (CFE suministra poste), cualquier medida en cualquier terreno,  incluye traslado desde el almacen de  CFE hasta la obra, su distribucion e instalacion, mano de obra de excavacion, instalacion, reparacion de banqueta, retiro de escombro producto de la excavacion.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de  retenida RSA;  incluye la excavación de  la cepa, reparación de  banqueta y retiro de  escombro, suministro y traslado de  los  materiales hasta el  punto de  la obra.</t>
-  </si>
-  <si>
-    <t>Retenida</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de  retenida RDA,  incluye la excavación de  la cepa, reparación de  banqueta y retiro de  escombro, suministro y traslado de  los  materiales  hasta el  punto de  la obra.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de  retenida RPP;  incluye suministro y traslado de  los  materiales hasta el punto de  la obra.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suministro e instalación de  retenida REA; incluye la excavación de  las cepas, poste de concreto de 7-500, reparación de  banqueta y retiro de  escombro, suministro y  traslado de  los  materiales hasta el  punto de  la obra </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suministro e instalación de  retenida REA;  incluye la excavación de  las cepas, reparación de  banqueta y retiro de  escombro, suministro y  traslado de  los  materiales hasta el  punto de  la obra. (contratista suministra poste de 9 metros) </t>
-  </si>
-  <si>
-    <t>Suministro e instalación de  retenida RBA; incluye la excavación de  la cepa, reparacion de banqueta y retiro de  escombro, suministro y traslado de  los  materiales hasta el punto de  la obra.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de  retenida RVP, incluye suministro y traslado de  los  materiales hasta el punto de  la obra.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suministro e instalación de retenida RVE;  incluye la excavación de  las cepas, poste de concreto de 7-400, reparación de  la banqueta y retiro de  escombro, suministro y traslado de  los materiales hasta el  punto de  la obra </t>
-  </si>
-  <si>
-    <t>Rehabilitar retenida RSA, comprende el suministro e instalación de  los materiales necesarios para su  elaboración conforme a Normas, utilizando el perno 1PA  existente.</t>
-  </si>
-  <si>
-    <t>Rehabilitar retenida REA, comprende el suministro e instalación de  los materiales necesarios para su  elaboración conforme a Normas (utilizando el mismo PC7-500 en buenas condiciones), utilizando el perno 1PA  existente.</t>
-  </si>
-  <si>
-    <t>Rehabilitar retenida RBA, comprende el suministro e instalación de  los materiales necesarios para su  elaboración conforme a Normas, utilizando el perno 1PA  existente.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura TS30, aislada para 13 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t>Estructura</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura TS30, aislada para 23 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura TS30, aislada para 33 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura TS20, aislada para 13 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura TS20, aislada para 23 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura TS20, aislada para 33 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura TD30, aislada para 13 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura TD30, aislada para 23 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura TD30, aislada para 33 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura TD20, aislada para 13 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura TD20, aislada para 23 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura TD20, aislada para 33 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura RD30, aislada para 13 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura RD30, aislada para 23 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura RD30, aislada para 33 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura RD20, aislada para 13 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura RD20, aislada para 23 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura RD20, aislada para 33 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura VS30, aislada para 13 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura VS30, aislada para 23 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura VS30, aislada para 33 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura VR30, aislada para 13 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura VR30, aislada para 23 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura VR30, aislada para 33 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura VD30, aislada para 13 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Suministro e instalación de estructura VD30, aislada para 23 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura VD30, aislada para 33 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura VA30, aislada para 13 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura VA30, aislada para 23 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura VA30, aislada para 33 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura VS20, aislada para 13 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura VS20, aislada para 23 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura VS20, aislada para 33 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura VR20, aislada para 13 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura VR20, aislada para 23 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura VR20, aislada para 33 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura VD20, aislada para 13 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura VD20, aislada para 23 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura VD20, aislada para 33 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura VA20, aislada para 13 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura VA20, aislada para 23 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura VA20, aislada para 33 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura AD30, aislada para 13 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura AD30, aislada para 23 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura AD30, aislada para 33 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura AD20, aislada para 13 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura AD20, aislada para 23 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Suministro e instalación de estructura AD20, aislada para 33 kV; incluye el traslado de los materiales al punto de la obra y mano de obra para su instalación.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura 1P1, incluye: el traslado de los materiales al sitio de la estructura.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura 1R1, incluye: el traslado de los materiales al sitio de la estructura.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura 1P3, incluye: el traslado de los materiales al sitio de la estructura.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura 1R3, incluye: el traslado de los materiales al sitio de la estructura.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura 1PR3, incluye: el traslado de los materiales al sitio de la estructura.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura 1R3-1R3, incluye: el traslado de los materiales al sitio de la estructura.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura 1P4, incluye: el traslado de los materiales al sitio de la estructura.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura 1R4, incluye: el traslado de los materiales al sitio de la estructura.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de estructura 1PR4, incluye: el traslado de los materiales al sitio de la estructura.</t>
-  </si>
-  <si>
-    <t>Suministro e instalción de estructura 1R4-1R4, incluye: el traslado de los materiales al sitio de la estructura.</t>
-  </si>
-  <si>
-    <t>Suministro, Tendido y tensionado de conductor desnudo en media tensión ACSR 1/0 AWG, incluye el traslado desde el almacén de contratista  hasta la obra y el suministro de los conectores a compresión tipo recto y derivación para elaborar conexiones en puentes y derivaciones, así como Alambre AS cal 4 AWG para los amarres.</t>
-  </si>
-  <si>
-    <t>Kg</t>
-  </si>
-  <si>
-    <t>Tendido y tensionado de conductor desnudo en media tensión ACSR 1/0 AWG, incluye el traslado desde el almacén de CFE hasta la obra y el suministro de los conectores a compresión tipo recto y derivación para elaborar conexiones en puentes y derivaciones, así como Alambre AS cal 4 AWG para los amarres.</t>
-  </si>
-  <si>
-    <t>Suministro, Tendido y tensionado de conductor desnudo en media tensión ACSR 3/0 AWG, incluye el traslado desde el almacén de contratista hasta la obra y el suministro de los conectores a compresión tipo recto y derivación para elaborar conexiones en puentes y derivaciones, así como Alambre AS cal 4 AWG para los amarres.</t>
-  </si>
-  <si>
-    <t>Tendido y tensionado de conductor desnudo en media tensión ACSR 3/0 AWG, incluye el traslado desde el almacén de CFE hasta la obra y el suministro de los conectores a compresión tipo recto y derivación para elaborar conexiones en puentes y derivaciones, así como Alambre AS cal 4 AWG para los amarres.</t>
-  </si>
-  <si>
-    <t>Suministro, Tendido y tensionado de conductor desnudo en media tensión ACSR calibre 336 AWG, incluye el traslado desde el almacén del contratista hasta la obra y el suministro de los conectores a compresión tipo recto y derivación para elaborar conexiones en puentes y derivaciones, así como Alambre AS cal 2 AWG para los amarres.</t>
-  </si>
-  <si>
-    <t>kg</t>
-  </si>
-  <si>
-    <t>Tendido y tensionado de conductor desnudo en media tensión ACSR calibre 336 AWG, incluye el traslado desde el almacén de CFE hasta la obra y el suministro de los conectores a compresión tipo recto y derivación para elaborar conexiones en puentes y derivaciones, así como Alambre AS cal 2 AWG para los amarres.</t>
-  </si>
-  <si>
-    <t>Suministro, Tendido y tensionado de cable semiaislado en media tensión ACSR calibre de 1/0 AWG 13kV, incluye el traslado desde el almacén de contratista hasta la obra y el suministro de los conectores a compresión tipo recto y derivación para elaborar conexiones en puentes y derivaciones, así como amarres no metálicos.</t>
-  </si>
-  <si>
-    <t>Mt</t>
-  </si>
-  <si>
-    <t>Tendido y tensionado de cable semiaislado en media tensión ACSR calibre de 1/0 a 3/0  AWG, incluye el traslado desde el almacén de CFE hasta la obra y el suministro de los conectores a compresión tipo recto y derivación para elaborar conexiones en puentes y derivaciones, así como amarres no metálicos.</t>
-  </si>
-  <si>
-    <t>Suministro, Tendido y tensionado de cable semiaislado en media tensión ACSR calibre de 1/0 AWG 23kV, incluye el traslado desde el almacén de contratista hasta la obra y el suministro de los conectores a compresión tipo recto y derivación para elaborar conexiones en puentes y derivaciones, así como amarres no metálicos.</t>
-  </si>
-  <si>
-    <t>Suministro, Tendido y tensionado de conductor desnudo en media tensión AAC calibre de 266 AWG, incluye el traslado desde el almacén de CFE hasta la obra y el suministro de los conectores a compresión tipo recto y derivación para elaborar conexiones en puentes y derivaciones, así como Alambre AS cal 2 AWG para los amarres.</t>
-  </si>
-  <si>
-    <t>Suministro, Tendido y tensionado de cable semiaislado en media tensión AAC calibre 266 AWG, incluye el traslado desde el almacén de CFE hasta la obra y el suministro de los conectores a compresión tipo recto y derivación para elaborar conexiones en puentes y derivaciones, así como amarres no metálicos.</t>
-  </si>
-  <si>
-    <t>Elaboración de puentes al vuelo en crucero media tensión cal 1/0-336 3F-4H; incluye suministro e instalación de conectores a compresión y cable para los puentes</t>
-  </si>
-  <si>
-    <t>Pieza</t>
-  </si>
-  <si>
-    <t>Suministro, Tendido y tensionado de cable múltiple AL-ACSR (2+1)3/0-1/0C para baja tensión, cualquier configuración y calibre, incluye el traslado desde el almacén de contratista</t>
-  </si>
-  <si>
-    <t>Suministro, Tendido y tensionado de cable múltiple AL-ACSR (3+1)3/0-1/0C para baja tensión, cualquier configuración y calibre, incluye el traslado desde el almacén de contratista</t>
-  </si>
-  <si>
-    <t>Tendido y tensionado de cable múltiple para baja tensión, cualquier configuración y calibre, incluye traslado desde el almacén de CFE</t>
-  </si>
-  <si>
-    <t>Suministro e Instalación de estructura 1TR2A, incluye suministro de herrajes y materiales consumibles, MO para su instalación y montaje de equipos y  (Contratista suministra CCF y ADOM en 13 kV)</t>
-  </si>
-  <si>
-    <t>Suministro e Instalación de estructura 1TR2A, incluye suministro de herrajes y materiales consumibles, MO para su instalación y montaje de equipos y  (Contratista suministra CCF y ADOM en 23kV)</t>
-  </si>
-  <si>
-    <t>Suministro e Instalación de estructura 1TR2A, incluye suministro de herrajes y materiales consumibles, MO para su instalación y montaje de equipos y  (Contratista suministra CCF y ADOM en 33kV)</t>
-  </si>
-  <si>
-    <t>Suministro e Instalación de estructura 1TR3A, incluye suministro de herrajes y materiales consumibles, MO para su instalación y montaje de equipos  (Contratista suministra CCF y ADOM en 13 kV )</t>
-  </si>
-  <si>
-    <t>Suministro e Instalación de estructura 1TR3A, incluye suministro de herrajes y materiales consumibles, MO para su instalación y montaje de equipos  (Contratista suministra CCF y ADOM en 23kV)</t>
-  </si>
-  <si>
-    <t>Suministro e Instalación de estructura 1TR3A, incluye suministro de herrajes y materiales consumibles, MO para su instalación y montaje de equipos  (Contratista suministra CCF y ADOM en 33kV)</t>
-  </si>
-  <si>
-    <t>Suministro e Instalación de TRANSF D1-10-13200-120/240 en estructura existente, incluye traslado desde el almacén de Contratista, maniobras de montaje, mano de obra de conexión (Instalacion de BUS 3/0-1/0)  Rótulo de Nº de Área y Nº de Economico.</t>
-  </si>
-  <si>
-    <t>Suministro e Instalación de TRANSF D1-15-13200-120/240 en estructura existente, incluye traslado desde el almacén de Contratista, maniobras de montaje, mano de obra de conexión (Instalacion de BUS 3/0-1/0)  Rótulo de Nº de Área y Nº de Economico.</t>
-  </si>
-  <si>
-    <t>Suministro e Instalación de TRANSF D1-25-13200-120/240 en estructura existente, incluye traslado desde el almacén de Contratista, maniobras de montaje, mano de obra de conexión (Instalacion de BUS 3/0-1/0)  Rótulo de Nº de Área y Nº de Economico.</t>
-  </si>
-  <si>
-    <t>Suministro e Instalación de TRANSF D1-37,5-13200-120/240 en estructura existente, incluye traslado desde el almacén de Contratista, maniobras de montaje, mano de obra de conexión (Instalacion de BUS 3/0-1/0)  Rótulo de Nº de Área y Nº de Economico.</t>
-  </si>
-  <si>
-    <t>Suministro e Instalación deTRANSF D3-15-13200-220Y/127 en estructura existente, incluye traslado desde el almacén de Contratista, maniobras de montaje, mano de obra de conexión (Instalacion de BUS 3/0-1/0)  Rótulo de Nº de Área y Nº de Economico.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Suministro e Instalación de TRANSF D3-30-13200-220Y/127 en estructura existente, incluye traslado desde el almacén de Contratista, maniobras de montaje, mano de obra de conexión (Instalacion de BUS 3/0-1/0)  Rótulo de Nº de Área y Nº de Economico.</t>
-  </si>
-  <si>
-    <t>Suministro e Instalación de TRANSF D3-45-13200-220Y/127 en estructura existente, incluye traslado desde el almacén de Contratista, maniobras de montaje, mano de obra de conexión (Instalacion de BUS 3/0-1/0)  Rótulo de Nº de Área y Nº de Economico.</t>
-  </si>
-  <si>
-    <t>Suministro e Instalación de TRANSF D1-10-23000-120/240 en estructura existente, incluye traslado desde el almacén de Contratista, maniobras de montaje, mano de obra de conexión (Instalacion de BUS 3/0-1/0)  Rótulo de Nº de Área y Nº de Economico.</t>
-  </si>
-  <si>
-    <t>Suministro e Instalación de TRANSF D1-15-23000-120/240 en estructura existente, incluye traslado desde el almacén de Contratista, maniobras de montaje, mano de obra de conexión (Instalacion de BUS 3/0-1/0)  Rótulo de Nº de Área y Nº de Economico.</t>
-  </si>
-  <si>
-    <t>Suministro e Instalación deTRANSF D3-15-23000-220Y/127 en estructura existente, incluye traslado desde el almacén de Contratista, maniobras de montaje, mano de obra de conexión (Instalacion de BUS 3/0-1/0)  Rótulo de Nº de Área y Nº de Economico.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Suministro e Instalación de TRANSF D3-30-23000-220Y/127 en estructura existente, incluye traslado desde el almacén de Contratista, maniobras de montaje, mano de obra de conexión (Instalacion de BUS 3/0-1/0)  Rótulo de Nº de Área y Nº de Economico.</t>
-  </si>
-  <si>
-    <t>Suministro e Instalación de TRANSF D1-10-33000-120/240 en estructura existente, incluye traslado desde el almacén de Contratista, maniobras de montaje, mano de obra de conexión (Instalacion de BUS 3/0-1/0)  Rótulo de Nº de Área y Nº de Economico.</t>
-  </si>
-  <si>
-    <t>Suministro e Instalación de TRANSF D1-15-33000-120/240 en estructura existente, incluye traslado desde el almacén de Contratista, maniobras de montaje, mano de obra de conexión (Instalacion de BUS 3/0-1/0)  Rótulo de Nº de Área y Nº de Economico.</t>
-  </si>
-  <si>
-    <t>Suministro e Instalación deTRANSF D3-15-33000-220Y/127 en estructura existente, incluye traslado desde el almacén de Contratista, maniobras de montaje, mano de obra de conexión (Instalacion de BUS 3/0-1/0)  Rótulo de Nº de Área y Nº de Economico.</t>
-  </si>
-  <si>
-    <t>Suministro e Instalación de TRANSF D3-30-33000-220Y/127 en estructura existente, incluye traslado desde el almacén de Contratista, maniobras de montaje, mano de obra de conexión (Instalacion de BUS 3/0-1/0)  Rótulo de Nº de Área y Nº de Economico.</t>
-  </si>
-  <si>
-    <t>Instalación de transformador monofasico; CFE suministra el equipo; Incluye: acarreo desde el almacén de CFE hasta el sitio de la obra, maniobras de instalación y todo el herraje necesario para su correcto funcionamiento.</t>
-  </si>
-  <si>
-    <t>Instalación de transformador trifásico; CFE suministra el equipo; Incluye: acarreo desde el almacén de CFE hasta el sitio de la obra, maniobras de instalación y todo el herraje necesario para su correcto funcionamiento.</t>
-  </si>
-  <si>
-    <t>Retiro e instalación de transformador trifásico, ya sea en el mismo poste o en poste diferente, comprende las maniobras de desconexión, retiro, instalación y conexión del equipo,  Rótulo de Nº de Área y Nº de Economico.</t>
-  </si>
-  <si>
-    <t>Retiro e instalación de transformador monofásico, ya sea en el mismo poste o en poste diferente, comprende las maniobras de desconexión, retiro, instalación y conexión del equipo,  Rótulo de Nº de Área y Nº de Economico.</t>
-  </si>
-  <si>
-    <t>Suministro de materiales y elaboración de Bus de secundario de transformador a red secundaria 3F-4H, formada por conductor de cobre forrado CUF 3/0 AWG para las fases y 1/0 AWG para neutro; incluye suministro de los conectadores derivadores tipo "L", considerar 2m de Bus.</t>
-  </si>
-  <si>
-    <t>Suministro de materiales y elaboración de Bus de secundario de transformador a red secundaria 2F-3H, formada por conductor de cobre forrado CUF 3/0 AWG para las fases y 1/0 AWG para neutro; incluye suministro de los conectadores derivadores tipo "L", considerar 2m de Bus.</t>
-  </si>
-  <si>
-    <t>Suministro y montaje de estructura 3CF3A en 13kV, incluye suministro e instalación de rótulo de Nº de Sitio.</t>
-  </si>
-  <si>
-    <t>Suministro e Instalacion de CCF en estructura existente 13kV, incluye: mano de obra de instalación, suministro de conector derivador estribo cal 336, CCF, conector LV y CFE Suministra (cable Cu 2 para 2 puentes de 1.5 m.)</t>
-  </si>
-  <si>
-    <t>Suministro e Instalacion de CCF en estructura existente 23kV, incluye: mano de obra de instalación, suministro de conector derivador estribo cal 336, CCF, conector LV, cable Cu 2 para 2 puentes de 1.5 m.</t>
-  </si>
-  <si>
-    <t>Suministro e Instalacion de CCF en estructura existente 33kV, incluye: mano de obra de instalación, suministro de conector derivador estribo cal 336, CCF, conector LV, cable Cu 2 para 2 puentes de 1.5 m.</t>
-  </si>
-  <si>
-    <t>Retiro e instalación de cortacircuito fusible CCF, en misma o diferente estructura, incluye suministro de conector LV, cable de CU2 para conexión y mano de obra.</t>
-  </si>
-  <si>
-    <t>Suministro e Instalación de ADOM en estructura existente 13kV, y lo necesario para su instalacion.</t>
-  </si>
-  <si>
-    <t>Suministro e Instalación de ADOM en estructura existente 23kV, y lo necesario para su instalacion.</t>
-  </si>
-  <si>
-    <t>Suministro e Instalación de ADOM en estructura existente 33kV, y lo necesario para su instalacion.</t>
-  </si>
-  <si>
-    <t>Retiro e instalación de apartarrayo en misma o diferente estructura, incl. materiales, mano de obra y herramienta.</t>
-  </si>
-  <si>
-    <t>Suministro y elaboración de Sistema de Tierra con valores conforme a las Normas de Construcción, formado mínimo por 3 electrodos, Cable ACS 7 N9 y soldadura exotérmica. (Incluye Bajante desde equipo y conexión).</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de bajante (Cable ACS 7 N9 y soldadura exotérmica) y electrodo de tierra, incluye cepa y reparación del terreno en el sitio de su instalación.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de acometida aérea hasta la base de medición, incluye: suministro, tendido y tensionado del cable de acometida (1+1)6 AAC (aprox 28 m) y conectador tipo cuña (UDC)</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de acometida aérea hasta la base de medición, incluye: suministro, tendido y tensionado del cable de acometida (2+1)6 AAC (aprox 28 m) y conectador tipo cuña (UDC)</t>
-  </si>
-  <si>
-    <t>Acometida</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de acometida aérea hasta la base de medición, incluye: suministro, tendido y tensionado del cable de acometida (3+1)6 AAC (aprox 28 m) y conectador tipo cuña (UDC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retiro e instalación de acometida existente aérea (sobre mismo poste), comprende la desconexión, retiro y tensionado de acometida existente y suministro de conectadores tipo cuña (UDC). </t>
-  </si>
-  <si>
-    <t>Retiro e instalación de acometida existente aérea (sobre poste diferente), comprende la desconexión, retiro y tensionado de acometida existente, empalme de conductor y suministro de conectadores tipo cuña (UDC), considerando ampliación de acometida.</t>
-  </si>
-  <si>
-    <t>Retiro de acometida aérea incluyendo el cable del interior del tubo conduit; considerar el embobinado y traslado hasta el almacén de CFE.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de preparación domiciliaria, preparada por base tipo soquet, tubo conduit 32mm, mufa seca 32mm, electrodo de tierra de 1.5m y tubo conduit 12mm, para alojar el cable de conexión a tierra.</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de murete sencillo para recepción de acometida, incl interruptor termomagnético, cable forrado de cobre cuf 8 y electrodo de tierra de 1.5 mts.</t>
-  </si>
-  <si>
-    <t>Murete</t>
-  </si>
-  <si>
-    <t>Retiro e Instalacion de poste de concreto cualquier medida,  incluye mano de obra de excavación, retiro, instalación, reparación de banqueta y retiro de escombro producto de la excavación.</t>
-  </si>
-  <si>
-    <t>Retiro de poste, incluye traslado hasta el almacén de CFE y reparación de banqueta</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Retiro de bastidores, incluye traslado hasta el almacén de CFE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Retiro de crucetas tipo "P", incluye traslado hasta el almacén de CFE</t>
-  </si>
-  <si>
-    <t>Retiro de aisladores primarios, incluye traslado hasta el almacén de CFE</t>
-  </si>
-  <si>
-    <t>Retiro de Conductores, incluye el embobinado en carretes y traslado hasta el almacén de CFE.</t>
-  </si>
-  <si>
-    <t>Kgs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Retiro de equipo menor, incluye traslado hasta el almacén de CFE</t>
-  </si>
-  <si>
-    <t>Retiro de equipo mayor, incluye traslado hasta el almacén de CFE</t>
-  </si>
-  <si>
-    <t>Retiro de retenidas cualquier tipo, incluye el traslado de materiales al almacén de CFE, el corte del perno Ancla 1PA, la reparación de la banqueta o terreno en el punto de trabajo similar al existente.</t>
-  </si>
-  <si>
-    <t>Elaboración de plano definitivo en DEPRORED, Georeferenciado incluyendo coordenadas con GPS. (Entregar DEPRORED por cada estimación de los trabajos ejecutados, el cual se pagara al término del contrato como 1 Lote).</t>
-  </si>
-  <si>
-    <t>Lote</t>
-  </si>
-  <si>
-    <t>Pruebas de Campo, comprende pruebas de puesta en servicio en la red (medición a sistemas de tierra y tensiones, en el equipo y en remates), entregando reporte por área de transformación.</t>
-  </si>
-  <si>
-    <t>Prueba</t>
-  </si>
-  <si>
-    <t>Rotulado preventivo de postes, hasta 1.5 m del piso de acuerdo a lo indicado en las normas de construcción, fondo amarillo y franjas negras</t>
-  </si>
-  <si>
-    <t>Rotulado de postes, de acuerdo a lo indicado en las normas de construcción, fondo amarillo con letras y números negros.</t>
-  </si>
-  <si>
-    <t>Replomear Poste, incluye reparación de banqueta o terreno similar al existente.</t>
-  </si>
-  <si>
-    <t>Tensionado de conductores existentes</t>
-  </si>
-  <si>
-    <t>Claro interpostal</t>
-  </si>
-  <si>
-    <t>Elaborar doble remate en Baja Tensión Red Abierta, incluye suministro de herrajes, aisladores, conectadores para acometidas y remates preformados</t>
-  </si>
-  <si>
-    <t>Suministro e instalación de Grapa Remate RAL-8.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Suministro e instalación de aislador 13SHL45N</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Suministro e instalación de aislador 23SHL45N</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Suministro e instalación de aislador 33SHL45N</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Suministro e instalación de aislador 13PD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Suministro e instalación de aislador 23PD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Suministro e instalación de aislador 33PD</t>
-  </si>
-  <si>
-    <t>Retiro e instalación de bastidor de baja tensión, en mismo o diferente sitio, incluye la mano de obra de retiro e instalación de la estructura y armado del tipo de estructura de la que se trate, (paso o remate).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adecuación de sitio para trabajos sobre línea energizada (Intercalado por parte de CFE). Incluye suministro y traslado de poste PCR-13-600, excavación de la cepa, mano de obra y materiales para reparación de baqueta y retiro de material producto de la excavación.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adecuación de sitio para trabajos sobre línea energizada (Intercalado por parte de CFE). Incluye suministro y traslado de poste PCR-12-750, excavación de la cepa, mano de obra y materiales para reparación de baqueta y retiro de material producto de la excavación.  </t>
-  </si>
-  <si>
-    <t>Suministro e instalacion de conector tipo estribo Cal. 336, incluye conector perico, alambre de cobre y conector cil 1/0 T.M.</t>
-  </si>
-  <si>
-    <t>Importe CFE</t>
-  </si>
-  <si>
-    <t>Elaboró:</t>
-  </si>
-  <si>
-    <t>Autorizo:</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Zona</t>
-  </si>
-  <si>
-    <t>Superintendente de Zona</t>
-  </si>
-  <si>
-    <t>05/12/2023</t>
   </si>
 </sst>
 </file>
@@ -1376,7 +1628,7 @@
   </sheetPr>
   <dimension ref="A1:H178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="false" showRowColHeaders="1">
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G172" sqref="G172"/>
     </sheetView>
@@ -1394,11 +1646,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>195</v>
-      </c>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:8" customHeight="1" ht="27.8" s="2" customFormat="1">
+      <c r="A2" s="2"/>
       <c r="B2" s="38" t="s">
         <v>0</v>
       </c>
@@ -1409,41 +1665,49 @@
       <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:8" customHeight="1" ht="28.5" s="2" customFormat="1">
+      <c r="A3" s="2"/>
       <c r="B3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="33"/>
+      <c r="C3" s="33" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="33"/>
       <c r="E3" s="34"/>
       <c r="F3" s="19"/>
       <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:8" customHeight="1" ht="38.3" s="2" customFormat="1">
+      <c r="A4" s="2"/>
       <c r="B4" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="36"/>
+        <v>3</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>4</v>
+      </c>
       <c r="D4" s="36"/>
       <c r="E4" s="37"/>
       <c r="F4" s="30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="31"/>
     </row>
     <row r="5" spans="1:8" customHeight="1" ht="21.8" s="2" customFormat="1">
+      <c r="A5" s="2"/>
       <c r="B5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="28"/>
+        <v>5</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>6</v>
+      </c>
       <c r="D5" s="28"/>
       <c r="E5" s="29"/>
       <c r="F5" s="30"/>
       <c r="G5" s="31"/>
     </row>
     <row r="6" spans="1:8" customHeight="1" ht="20.95" s="2" customFormat="1">
-      <c r="B6" s="23" t="s">
-        <v>5</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
       <c r="E6" s="25"/>
@@ -1451,2237 +1715,2368 @@
       <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:8" customHeight="1" ht="20.95" s="2" customFormat="1">
-      <c r="B7" s="19"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" customHeight="1" ht="20.95" s="2" customFormat="1">
-      <c r="B8" s="9" t="s">
-        <v>6</v>
+      <c r="A8" s="2"/>
+      <c r="B8" s="9">
+        <v>1</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>8</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D8" s="9"/>
       <c r="E8" s="9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>11</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" customHeight="1" ht="16.55">
+      <c r="A9"/>
       <c r="B9" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="5">
-        <v>216.80533433504</v>
-      </c>
-      <c r="G9" s="5">
-        <f>$D9*F9</f>
-        <v>0</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9"/>
     </row>
     <row r="10" spans="1:8" customHeight="1" ht="18">
+      <c r="A10"/>
       <c r="B10" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="E10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="7">
-        <v>296.622843204</v>
-      </c>
-      <c r="G10" s="5">
-        <f>$D10*F10</f>
-        <v>0</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="5" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H10"/>
     </row>
     <row r="11" spans="1:8" customHeight="1" ht="47.95">
+      <c r="A11"/>
       <c r="B11" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D11" s="6"/>
       <c r="E11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="7">
-        <v>10624.854193844</v>
-      </c>
-      <c r="G11" s="5" t="e">
-        <f>$D11*F11</f>
-        <v>#VALUE!</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11"/>
     </row>
     <row r="12" spans="1:8" customHeight="1" ht="30.1">
+      <c r="A12"/>
       <c r="B12" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="7">
-        <v>10624.856718998</v>
-      </c>
-      <c r="G12" s="5">
-        <f>$D12*F12</f>
-        <v>0</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12"/>
     </row>
     <row r="13" spans="1:8" customHeight="1" ht="30.1">
+      <c r="A13"/>
       <c r="B13" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="D13" s="6">
+        <v>37</v>
+      </c>
       <c r="E13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="7">
-        <v>6011.9554251714</v>
-      </c>
-      <c r="G13" s="5">
-        <f>$D13*F13</f>
-        <v>0</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13"/>
     </row>
     <row r="14" spans="1:8" customHeight="1" ht="45.15">
+      <c r="A14"/>
       <c r="B14" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D14" s="6">
+        <v>10</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14"/>
+    </row>
+    <row r="15" spans="1:8" customHeight="1" ht="30.1">
+      <c r="A15"/>
+      <c r="B15" s="12">
+        <v>8</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15"/>
+    </row>
+    <row r="16" spans="1:8" customHeight="1" ht="30.1">
+      <c r="A16"/>
+      <c r="B16" s="10">
+        <v>3</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="6">
+        <v>3</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="7">
-        <v>2396.0977897341</v>
-      </c>
-      <c r="G14" s="5">
-        <f>$D14*F14</f>
-        <v>88655.61822016</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" customHeight="1" ht="30.1">
-      <c r="B15" s="12">
-        <v>2</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="6">
-        <v>10</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="7">
-        <v>2886.4541945435</v>
-      </c>
-      <c r="G15" s="5">
-        <f>$D15*F15</f>
-        <v>28864.541945435</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" customHeight="1" ht="30.1">
-      <c r="B16" s="10">
-        <v>8</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="7">
-        <v>3750.3741018613</v>
-      </c>
-      <c r="G16" s="5">
-        <f>$D16*F16</f>
-        <v>0</v>
-      </c>
+      <c r="G16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16"/>
     </row>
     <row r="17" spans="1:8" customHeight="1" ht="32.55">
+      <c r="A17"/>
       <c r="B17" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D17" s="6">
         <v>3</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="7">
-        <v>2644.2737895525</v>
-      </c>
-      <c r="G17" s="5">
-        <f>$D17*F17</f>
-        <v>7932.8213686574</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17"/>
     </row>
     <row r="18" spans="1:8" customHeight="1" ht="50.55">
+      <c r="A18"/>
       <c r="B18" s="12">
+        <v>11</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18"/>
+    </row>
+    <row r="19" spans="1:8" customHeight="1" ht="49.85">
+      <c r="A19"/>
+      <c r="B19" s="10">
+        <v>5</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="6">
+        <v>14</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="1:8" customHeight="1" ht="30.1">
+      <c r="A20"/>
+      <c r="B20" s="10">
+        <v>6</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="6">
         <v>4</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="6">
-        <v>3</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="7">
-        <v>7839.3297425731</v>
-      </c>
-      <c r="G18" s="5">
-        <f>$D18*F18</f>
-        <v>23517.989227719</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" customHeight="1" ht="49.85">
-      <c r="B19" s="10">
-        <v>11</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="7">
-        <v>8323.7243685731</v>
-      </c>
-      <c r="G19" s="5">
-        <f>$D19*F19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" customHeight="1" ht="30.1">
-      <c r="B20" s="10">
-        <v>5</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="6">
-        <v>14</v>
-      </c>
       <c r="E20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="7">
-        <v>3371.955220081</v>
-      </c>
-      <c r="G20" s="5">
-        <f>$D20*F20</f>
-        <v>47207.373081133</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20"/>
     </row>
     <row r="21" spans="1:8" customHeight="1" ht="34.15">
+      <c r="A21"/>
       <c r="B21" s="12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D21" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="7">
-        <v>4975.8562634759</v>
-      </c>
-      <c r="G21" s="5">
-        <f>$D21*F21</f>
-        <v>19903.425053904</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21"/>
     </row>
     <row r="22" spans="1:8" customHeight="1" ht="47.15">
+      <c r="A22"/>
       <c r="B22" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D22" s="6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="7">
-        <v>8963.7354467436</v>
-      </c>
-      <c r="G22" s="5">
-        <f>$D22*F22</f>
-        <v>71709.883573949</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22"/>
     </row>
     <row r="23" spans="1:8" customHeight="1" ht="36">
+      <c r="A23"/>
       <c r="B23" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D23" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="7">
-        <v>2132.7848004713</v>
-      </c>
-      <c r="G23" s="5">
-        <f>$D23*F23</f>
-        <v>4265.5696009425</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23"/>
     </row>
     <row r="24" spans="1:8" customHeight="1" ht="45.15">
+      <c r="A24"/>
       <c r="B24" s="12">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C24" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="6">
-        <v>1</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="7">
-        <v>3900.9186706359</v>
-      </c>
-      <c r="G24" s="5">
-        <f>$D24*F24</f>
-        <v>3900.9186706359</v>
-      </c>
+      <c r="F24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24"/>
     </row>
     <row r="25" spans="1:8" customHeight="1" ht="33.05">
+      <c r="A25"/>
       <c r="B25" s="10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="7">
-        <v>2725.9300088409</v>
-      </c>
-      <c r="G25" s="5">
-        <f>$D25*F25</f>
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25"/>
     </row>
     <row r="26" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A26"/>
       <c r="B26" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="7">
-        <v>4313.127809798</v>
-      </c>
-      <c r="G26" s="5">
-        <f>$D26*F26</f>
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26"/>
     </row>
     <row r="27" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A27"/>
       <c r="B27" s="12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="4" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="F27" s="7"/>
-      <c r="G27" s="5">
-        <f>$D27*F27</f>
-        <v>0</v>
-      </c>
+      <c r="G27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27"/>
     </row>
     <row r="28" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A28"/>
       <c r="B28" s="10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="5">
-        <f>$D28*F28</f>
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28"/>
     </row>
     <row r="29" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A29"/>
       <c r="B29" s="10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" s="7">
-        <v>3378.9008905306</v>
-      </c>
-      <c r="G29" s="5">
-        <f>$D29*F29</f>
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29"/>
     </row>
     <row r="30" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A30"/>
       <c r="B30" s="10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="4" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="F30" s="7"/>
-      <c r="G30" s="5">
-        <f>$D30*F30</f>
-        <v>0</v>
-      </c>
+      <c r="G30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30"/>
     </row>
     <row r="31" spans="1:8" customHeight="1" ht="34.95">
-      <c r="B31" s="12">
-        <v>23</v>
-      </c>
+      <c r="A31"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="15" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="5">
-        <f>$D31*F31</f>
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31"/>
     </row>
     <row r="32" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A32"/>
       <c r="B32" s="10"/>
       <c r="C32" s="11" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32" s="7">
-        <v>8053.170284598</v>
-      </c>
-      <c r="G32" s="5">
-        <f>$D32*F32</f>
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32"/>
     </row>
     <row r="33" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A33"/>
       <c r="B33" s="10"/>
       <c r="C33" s="15" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="4" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="F33" s="7"/>
-      <c r="G33" s="5">
-        <f>$D33*F33</f>
-        <v>0</v>
-      </c>
+      <c r="G33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33"/>
     </row>
     <row r="34" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A34"/>
       <c r="B34" s="10"/>
       <c r="C34" s="15" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="5">
-        <f>$D34*F34</f>
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34"/>
     </row>
     <row r="35" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A35"/>
       <c r="B35" s="10"/>
       <c r="C35" s="11" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" s="7">
-        <v>5884.518988998</v>
-      </c>
-      <c r="G35" s="5">
-        <f>$D35*F35</f>
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35"/>
     </row>
     <row r="36" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A36"/>
       <c r="B36" s="10"/>
       <c r="C36" s="15" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="4" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="F36" s="7"/>
-      <c r="G36" s="5">
-        <f>$D36*F36</f>
-        <v>0</v>
-      </c>
+      <c r="G36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36"/>
     </row>
     <row r="37" spans="1:8" customHeight="1" ht="34.95">
-      <c r="B37" s="10"/>
+      <c r="A37"/>
+      <c r="B37" s="10">
+        <v>10</v>
+      </c>
       <c r="C37" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" s="6"/>
+        <v>77</v>
+      </c>
+      <c r="D37" s="6">
+        <v>4</v>
+      </c>
       <c r="E37" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="5">
-        <f>$D37*F37</f>
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H37"/>
     </row>
     <row r="38" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A38"/>
       <c r="B38" s="10">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" s="6">
-        <v>4</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D38" s="6"/>
       <c r="E38" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" s="7">
-        <v>7178.1740146632</v>
-      </c>
-      <c r="G38" s="5">
-        <f>$D38*F38</f>
-        <v>28712.696058653</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38"/>
     </row>
     <row r="39" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A39"/>
       <c r="B39" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="4" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="F39" s="7"/>
-      <c r="G39" s="5">
-        <f>$D39*F39</f>
-        <v>0</v>
-      </c>
+      <c r="G39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39"/>
     </row>
     <row r="40" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A40"/>
       <c r="B40" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="5">
-        <f>$D40*F40</f>
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40"/>
     </row>
     <row r="41" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A41"/>
       <c r="B41" s="10">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F41" s="7">
-        <v>6443.705839886</v>
-      </c>
-      <c r="G41" s="5">
-        <f>$D41*F41</f>
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41"/>
     </row>
     <row r="42" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A42"/>
       <c r="B42" s="10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="4" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="F42" s="7"/>
-      <c r="G42" s="5">
-        <f>$D42*F42</f>
-        <v>0</v>
-      </c>
+      <c r="G42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42"/>
     </row>
     <row r="43" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A43"/>
       <c r="B43" s="12">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="6"/>
+        <v>86</v>
+      </c>
+      <c r="D43" s="6">
+        <v>12</v>
+      </c>
       <c r="E43" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="5">
-        <f>$D43*F43</f>
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H43"/>
     </row>
     <row r="44" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A44"/>
       <c r="B44" s="10">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D44" s="6">
-        <v>12</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="D44" s="6"/>
       <c r="E44" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F44" s="7">
-        <v>5157.4000582373</v>
-      </c>
-      <c r="G44" s="5">
-        <f>$D44*F44</f>
-        <v>61888.800698848</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44"/>
     </row>
     <row r="45" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A45"/>
       <c r="B45" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="G45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45"/>
+    </row>
+    <row r="46" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A46"/>
+      <c r="B46" s="10">
+        <v>12</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="6">
+        <v>8</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H46"/>
+    </row>
+    <row r="47" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A47"/>
+      <c r="B47" s="10">
         <v>34</v>
       </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="5">
-        <f>$D45*F45</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" customHeight="1" ht="34.95">
-      <c r="B46" s="10">
-        <v>32</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="5">
-        <f>$D46*F46</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" customHeight="1" ht="34.95">
-      <c r="B47" s="10">
-        <v>12</v>
-      </c>
       <c r="C47" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D47" s="6">
-        <v>8</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="D47" s="6"/>
       <c r="E47" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F47" s="7">
-        <v>7975.1400728338</v>
-      </c>
-      <c r="G47" s="5">
-        <f>$D47*F47</f>
-        <v>63801.12058267</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F47" s="7"/>
+      <c r="G47" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47"/>
     </row>
     <row r="48" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A48"/>
       <c r="B48" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="4" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="F48" s="7"/>
-      <c r="G48" s="5">
-        <f>$D48*F48</f>
-        <v>0</v>
-      </c>
+      <c r="G48" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48"/>
     </row>
     <row r="49" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A49"/>
       <c r="B49" s="12">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D49" s="6"/>
+        <v>96</v>
+      </c>
+      <c r="D49" s="6">
+        <v>1</v>
+      </c>
       <c r="E49" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F49" s="7"/>
-      <c r="G49" s="5">
-        <f>$D49*F49</f>
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H49"/>
     </row>
     <row r="50" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A50"/>
       <c r="B50" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D50" s="6">
-        <v>1</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="D50" s="6"/>
       <c r="E50" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F50" s="7">
-        <v>9959.7723098177</v>
-      </c>
-      <c r="G50" s="5">
-        <f>$D50*F50</f>
-        <v>9959.7723098177</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F50" s="7"/>
+      <c r="G50" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50"/>
     </row>
     <row r="51" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A51"/>
       <c r="B51" s="12">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="4" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="F51" s="7"/>
-      <c r="G51" s="5">
-        <f>$D51*F51</f>
-        <v>0</v>
-      </c>
+      <c r="G51" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51"/>
     </row>
     <row r="52" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A52"/>
       <c r="B52" s="10">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D52" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="D52" s="6">
+        <v>6</v>
+      </c>
       <c r="E52" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F52" s="7"/>
-      <c r="G52" s="5">
-        <f>$D52*F52</f>
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H52"/>
     </row>
     <row r="53" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A53"/>
       <c r="B53" s="10">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D53" s="6">
-        <v>6</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D53" s="6"/>
       <c r="E53" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F53" s="7">
-        <v>13827.846284564</v>
-      </c>
-      <c r="G53" s="5">
-        <f>$D53*F53</f>
-        <v>82967.077707383</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F53" s="7"/>
+      <c r="G53" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53"/>
     </row>
     <row r="54" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A54"/>
       <c r="B54" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="4" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="F54" s="7"/>
-      <c r="G54" s="5">
-        <f>$D54*F54</f>
-        <v>0</v>
-      </c>
+      <c r="G54" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54"/>
     </row>
     <row r="55" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A55"/>
       <c r="B55" s="12">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D55" s="6"/>
+        <v>105</v>
+      </c>
+      <c r="D55" s="6">
+        <v>2</v>
+      </c>
       <c r="E55" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F55" s="7"/>
-      <c r="G55" s="5">
-        <f>$D55*F55</f>
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H55"/>
     </row>
     <row r="56" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A56"/>
       <c r="B56" s="10">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D56" s="6">
-        <v>2</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="D56" s="6"/>
       <c r="E56" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F56" s="7">
-        <v>5026.9663354696</v>
-      </c>
-      <c r="G56" s="5">
-        <f>$D56*F56</f>
-        <v>10053.932670939</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F56" s="7"/>
+      <c r="G56" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56"/>
     </row>
     <row r="57" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A57"/>
       <c r="B57" s="12">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="4" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="F57" s="7"/>
-      <c r="G57" s="5">
-        <f>$D57*F57</f>
-        <v>0</v>
-      </c>
+      <c r="G57" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H57"/>
     </row>
     <row r="58" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A58"/>
       <c r="B58" s="10">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D58" s="6"/>
+        <v>110</v>
+      </c>
+      <c r="D58" s="6">
+        <v>2</v>
+      </c>
       <c r="E58" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F58" s="7"/>
-      <c r="G58" s="5">
-        <f>$D58*F58</f>
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H58"/>
     </row>
     <row r="59" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A59"/>
       <c r="B59" s="10">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D59" s="6">
-        <v>2</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D59" s="6"/>
       <c r="E59" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F59" s="7">
-        <v>7257.6394148338</v>
-      </c>
-      <c r="G59" s="5">
-        <f>$D59*F59</f>
-        <v>14515.278829668</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F59" s="7"/>
+      <c r="G59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59"/>
     </row>
     <row r="60" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A60"/>
       <c r="B60" s="10">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="4" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="F60" s="7"/>
-      <c r="G60" s="5">
-        <f>$D60*F60</f>
-        <v>0</v>
-      </c>
+      <c r="G60" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60"/>
     </row>
     <row r="61" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A61"/>
       <c r="B61" s="12">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F61" s="7"/>
-      <c r="G61" s="5">
-        <f>$D61*F61</f>
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61"/>
     </row>
     <row r="62" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A62"/>
       <c r="B62" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F62" s="7">
-        <v>8483.7272306177</v>
-      </c>
-      <c r="G62" s="5">
-        <f>$D62*F62</f>
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F62" s="7"/>
+      <c r="G62" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62"/>
     </row>
     <row r="63" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A63"/>
       <c r="B63" s="12">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="4" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="F63" s="7"/>
-      <c r="G63" s="5">
-        <f>$D63*F63</f>
-        <v>0</v>
-      </c>
+      <c r="G63" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63"/>
     </row>
     <row r="64" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A64"/>
       <c r="B64" s="10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F64" s="7"/>
-      <c r="G64" s="5">
-        <f>$D64*F64</f>
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H64"/>
     </row>
     <row r="65" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A65"/>
       <c r="B65" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F65" s="7">
-        <v>13039.477956328</v>
-      </c>
-      <c r="G65" s="5">
-        <f>$D65*F65</f>
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F65" s="7"/>
+      <c r="G65" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H65"/>
     </row>
     <row r="66" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A66"/>
       <c r="B66" s="10">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="4" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="F66" s="7"/>
-      <c r="G66" s="5">
-        <f>$D66*F66</f>
-        <v>0</v>
-      </c>
+      <c r="G66" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H66"/>
     </row>
     <row r="67" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A67"/>
       <c r="B67" s="12">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F67" s="7"/>
-      <c r="G67" s="5">
-        <f>$D67*F67</f>
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H67"/>
     </row>
     <row r="68" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A68"/>
       <c r="B68" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F68" s="7">
-        <v>12405.101044001</v>
-      </c>
-      <c r="G68" s="5">
-        <f>$D68*F68</f>
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F68" s="7"/>
+      <c r="G68" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H68"/>
     </row>
     <row r="69" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A69"/>
       <c r="B69" s="12">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="4" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="F69" s="7"/>
-      <c r="G69" s="5">
-        <f>$D69*F69</f>
-        <v>0</v>
-      </c>
+      <c r="G69" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H69"/>
     </row>
     <row r="70" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A70"/>
       <c r="B70" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F70" s="7"/>
-      <c r="G70" s="5">
-        <f>$D70*F70</f>
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H70"/>
     </row>
     <row r="71" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A71"/>
       <c r="B71" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F71" s="7">
-        <v>11643.652348728</v>
-      </c>
-      <c r="G71" s="5">
-        <f>$D71*F71</f>
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F71" s="7"/>
+      <c r="G71" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H71"/>
     </row>
     <row r="72" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A72"/>
       <c r="B72" s="10">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="4" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="F72" s="7"/>
-      <c r="G72" s="5">
-        <f>$D72*F72</f>
-        <v>0</v>
-      </c>
+      <c r="G72" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72"/>
     </row>
     <row r="73" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A73"/>
       <c r="B73" s="12">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D73" s="6"/>
+        <v>131</v>
+      </c>
+      <c r="D73" s="6">
+        <v>3</v>
+      </c>
       <c r="E73" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F73" s="7"/>
-      <c r="G73" s="5">
-        <f>$D73*F73</f>
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H73"/>
     </row>
     <row r="74" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A74"/>
       <c r="B74" s="10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="D74" s="6">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F74" s="7">
-        <v>409.45192356581</v>
-      </c>
-      <c r="G74" s="5">
-        <f>$D74*F74</f>
-        <v>1228.3557706974</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="H74"/>
     </row>
     <row r="75" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A75"/>
       <c r="B75" s="12">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D75" s="6">
-        <v>21</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="D75" s="6"/>
       <c r="E75" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F75" s="7">
-        <v>578.83886286426</v>
-      </c>
-      <c r="G75" s="5">
-        <f>$D75*F75</f>
-        <v>12155.616120149</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H75"/>
     </row>
     <row r="76" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A76"/>
       <c r="B76" s="10">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D76" s="6"/>
+        <v>139</v>
+      </c>
+      <c r="D76" s="6">
+        <v>1</v>
+      </c>
       <c r="E76" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F76" s="7">
-        <v>1539.415721143</v>
-      </c>
-      <c r="G76" s="5">
-        <f>$D76*F76</f>
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H76"/>
     </row>
     <row r="77" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A77"/>
       <c r="B77" s="10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="D77" s="6">
         <v>1</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F77" s="7">
-        <v>1193.2609137924</v>
-      </c>
-      <c r="G77" s="5">
-        <f>$D77*F77</f>
-        <v>1193.2609137924</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H77"/>
     </row>
     <row r="78" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A78"/>
       <c r="B78" s="10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="D78" s="6">
         <v>1</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F78" s="7">
-        <v>1726.5759948445</v>
-      </c>
-      <c r="G78" s="5">
-        <f>$D78*F78</f>
-        <v>1726.5759948445</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H78"/>
     </row>
     <row r="79" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A79"/>
       <c r="B79" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="D79" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F79" s="7">
-        <v>1862.8613227145</v>
-      </c>
-      <c r="G79" s="5">
-        <f>$D79*F79</f>
-        <v>1862.8613227145</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="H79"/>
     </row>
     <row r="80" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A80"/>
       <c r="B80" s="10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="D80" s="6">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F80" s="7">
-        <v>1767.9270409924</v>
-      </c>
-      <c r="G80" s="5">
-        <f>$D80*F80</f>
-        <v>8839.6352049619</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H80"/>
     </row>
     <row r="81" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A81"/>
       <c r="B81" s="12">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D81" s="6">
-        <v>18</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="D81" s="6"/>
       <c r="E81" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F81" s="7">
-        <v>1375.1731975088</v>
-      </c>
-      <c r="G81" s="5">
-        <f>$D81*F81</f>
-        <v>24753.117555159</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H81"/>
     </row>
     <row r="82" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A82"/>
       <c r="B82" s="10">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D82" s="6"/>
+        <v>153</v>
+      </c>
+      <c r="D82" s="6">
+        <v>10</v>
+      </c>
       <c r="E82" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F82" s="7">
-        <v>2200.4574595088</v>
-      </c>
-      <c r="G82" s="5">
-        <f>$D82*F82</f>
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H82"/>
     </row>
     <row r="83" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A83"/>
       <c r="B83" s="10">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D83" s="6">
-        <v>10</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="D83" s="6"/>
       <c r="E83" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F83" s="7">
-        <v>2453.6906744166</v>
-      </c>
-      <c r="G83" s="5">
-        <f>$D83*F83</f>
-        <v>24536.906744166</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="F83" s="7"/>
+      <c r="G83" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83"/>
     </row>
     <row r="84" spans="1:8" customHeight="1" ht="65.95">
+      <c r="A84"/>
       <c r="B84" s="10">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D84" s="6"/>
+        <v>158</v>
+      </c>
+      <c r="D84" s="6">
+        <v>533</v>
+      </c>
       <c r="E84" s="4" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="F84" s="7"/>
-      <c r="G84" s="5">
-        <f>$D84*F84</f>
-        <v>0</v>
-      </c>
+      <c r="G84" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H84"/>
     </row>
     <row r="85" spans="1:8" customHeight="1" ht="64.9">
+      <c r="A85"/>
       <c r="B85" s="12">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D85" s="6">
-        <v>533</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="D85" s="6"/>
       <c r="E85" s="4" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="F85" s="7"/>
-      <c r="G85" s="5">
-        <f>$D85*F85</f>
-        <v>0</v>
-      </c>
+      <c r="G85" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H85"/>
     </row>
     <row r="86" spans="1:8" customHeight="1" ht="66.65">
+      <c r="A86"/>
       <c r="B86" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="D86" s="6"/>
       <c r="E86" s="4" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="F86" s="7"/>
-      <c r="G86" s="5">
-        <f>$D86*F86</f>
-        <v>0</v>
-      </c>
+      <c r="G86" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H86"/>
     </row>
     <row r="87" spans="1:8" customHeight="1" ht="64.9">
+      <c r="A87"/>
       <c r="B87" s="12">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c r="D87" s="6"/>
       <c r="E87" s="4" t="s">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="F87" s="7"/>
-      <c r="G87" s="5">
-        <f>$D87*F87</f>
-        <v>0</v>
-      </c>
+      <c r="G87" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H87"/>
     </row>
     <row r="88" spans="1:8" customHeight="1" ht="67.2">
+      <c r="A88"/>
       <c r="B88" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>97</v>
+        <v>163</v>
       </c>
       <c r="D88" s="6"/>
       <c r="E88" s="4" t="s">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c r="F88" s="7"/>
-      <c r="G88" s="5">
-        <f>$D88*F88</f>
-        <v>0</v>
-      </c>
+      <c r="G88" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H88"/>
     </row>
     <row r="89" spans="1:8" customHeight="1" ht="65.45">
+      <c r="A89"/>
       <c r="B89" s="10">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="D89" s="6"/>
       <c r="E89" s="4" t="s">
-        <v>93</v>
+        <v>165</v>
       </c>
       <c r="F89" s="7"/>
-      <c r="G89" s="5">
-        <f>$D89*F89</f>
-        <v>0</v>
-      </c>
+      <c r="G89" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H89"/>
     </row>
     <row r="90" spans="1:8" customHeight="1" ht="64.9">
+      <c r="A90"/>
       <c r="B90" s="10">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>100</v>
+        <v>166</v>
       </c>
       <c r="D90" s="6"/>
       <c r="E90" s="4" t="s">
-        <v>101</v>
+        <v>165</v>
       </c>
       <c r="F90" s="7"/>
-      <c r="G90" s="5">
-        <f>$D90*F90</f>
-        <v>0</v>
-      </c>
+      <c r="G90" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H90"/>
     </row>
     <row r="91" spans="1:8" customHeight="1" ht="63.55">
+      <c r="A91"/>
       <c r="B91" s="12">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>102</v>
+        <v>167</v>
       </c>
       <c r="D91" s="6"/>
       <c r="E91" s="4" t="s">
-        <v>101</v>
+        <v>165</v>
       </c>
       <c r="F91" s="7"/>
-      <c r="G91" s="5">
-        <f>$D91*F91</f>
-        <v>0</v>
-      </c>
+      <c r="G91" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H91"/>
     </row>
     <row r="92" spans="1:8" customHeight="1" ht="60.2">
-      <c r="B92" s="10">
-        <v>78</v>
-      </c>
+      <c r="A92"/>
+      <c r="B92" s="10"/>
       <c r="C92" s="11" t="s">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="D92" s="6"/>
       <c r="E92" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F92" s="7"/>
-      <c r="G92" s="5">
-        <f>$D92*F92</f>
-        <v>0</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H92"/>
     </row>
     <row r="93" spans="1:8" customHeight="1" ht="63.8">
+      <c r="A93"/>
       <c r="B93" s="10"/>
       <c r="C93" s="11" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="D93" s="6"/>
       <c r="E93" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F93" s="7">
-        <v>0</v>
-      </c>
-      <c r="G93" s="5">
-        <f>$D93*F93</f>
-        <v>0</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H93"/>
     </row>
     <row r="94" spans="1:8" customHeight="1" ht="65.3">
-      <c r="B94" s="10"/>
+      <c r="A94"/>
+      <c r="B94" s="10">
+        <v>26</v>
+      </c>
       <c r="C94" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D94" s="6"/>
+        <v>170</v>
+      </c>
+      <c r="D94" s="6">
+        <v>2</v>
+      </c>
       <c r="E94" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F94" s="7">
-        <v>0</v>
-      </c>
-      <c r="G94" s="5">
-        <f>$D94*F94</f>
-        <v>0</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="H94"/>
     </row>
     <row r="95" spans="1:8" customHeight="1" ht="36">
+      <c r="A95"/>
       <c r="B95" s="12">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D95" s="6">
-        <v>2</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="D95" s="6"/>
       <c r="E95" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F95" s="16">
-        <v>2075.7867978955</v>
-      </c>
-      <c r="G95" s="5">
-        <f>$D95*F95</f>
-        <v>4151.573595791</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="F95" s="16"/>
+      <c r="G95" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H95"/>
     </row>
     <row r="96" spans="1:8" customHeight="1" ht="33.6">
+      <c r="A96"/>
       <c r="B96" s="10">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>108</v>
+        <v>175</v>
       </c>
       <c r="D96" s="6"/>
       <c r="E96" s="4" t="s">
-        <v>101</v>
+        <v>165</v>
       </c>
       <c r="F96" s="7"/>
-      <c r="G96" s="5">
-        <f>$D96*F96</f>
-        <v>0</v>
-      </c>
+      <c r="G96" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H96"/>
     </row>
     <row r="97" spans="1:8" customHeight="1" ht="49.85">
+      <c r="A97"/>
       <c r="B97" s="10">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D97" s="6"/>
+        <v>176</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>177</v>
+      </c>
       <c r="E97" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F97" s="7"/>
-      <c r="G97" s="5">
-        <f>$D97*F97</f>
-        <v>0</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H97"/>
     </row>
     <row r="98" spans="1:8" customHeight="1" ht="49.85">
+      <c r="A98"/>
       <c r="B98" s="10">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="D98" s="6">
-        <v>1366</v>
+        <v>2</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F98" s="7">
-        <v>27.559455368552</v>
-      </c>
-      <c r="G98" s="5">
-        <f>$D98*F98</f>
-        <v>37646.216033442</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="H98"/>
     </row>
     <row r="99" spans="1:8" customHeight="1" ht="49.85">
+      <c r="A99"/>
       <c r="B99" s="12">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D99" s="6">
-        <v>2</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="D99" s="6"/>
       <c r="E99" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F99" s="7">
-        <v>17581.862705449</v>
-      </c>
-      <c r="G99" s="5">
-        <f>$D99*F99</f>
-        <v>35163.725410898</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F99" s="7"/>
+      <c r="G99" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H99"/>
     </row>
     <row r="100" spans="1:8" customHeight="1" ht="49.85">
+      <c r="A100"/>
       <c r="B100" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="D100" s="6"/>
       <c r="E100" s="4" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="F100" s="7"/>
-      <c r="G100" s="5">
-        <f>$D100*F100</f>
-        <v>0</v>
-      </c>
+      <c r="G100" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H100"/>
     </row>
     <row r="101" spans="1:8" customHeight="1" ht="49.85">
+      <c r="A101"/>
       <c r="B101" s="12">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D101" s="6"/>
+        <v>185</v>
+      </c>
+      <c r="D101" s="6">
+        <v>8</v>
+      </c>
       <c r="E101" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F101" s="7"/>
-      <c r="G101" s="5">
-        <f>$D101*F101</f>
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H101"/>
     </row>
     <row r="102" spans="1:8" customHeight="1" ht="49.85">
+      <c r="A102"/>
       <c r="B102" s="10">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D102" s="6">
-        <v>8</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="D102" s="6"/>
       <c r="E102" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F102" s="7">
-        <v>22922.955211811</v>
-      </c>
-      <c r="G102" s="5">
-        <f>$D102*F102</f>
-        <v>183383.64169449</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F102" s="7"/>
+      <c r="G102" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H102"/>
     </row>
     <row r="103" spans="1:8" customHeight="1" ht="51.05">
+      <c r="A103"/>
       <c r="B103" s="10">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>115</v>
+        <v>189</v>
       </c>
       <c r="D103" s="6"/>
       <c r="E103" s="4" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="F103" s="7"/>
-      <c r="G103" s="5">
-        <f>$D103*F103</f>
-        <v>0</v>
-      </c>
+      <c r="G103" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H103"/>
     </row>
     <row r="104" spans="1:8" customHeight="1" ht="51.05">
+      <c r="A104"/>
       <c r="B104" s="10">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>116</v>
+        <v>190</v>
       </c>
       <c r="D104" s="6"/>
       <c r="E104" s="4" t="s">
-        <v>34</v>
+        <v>171</v>
       </c>
       <c r="F104" s="7"/>
-      <c r="G104" s="5">
-        <f>$D104*F104</f>
-        <v>0</v>
-      </c>
+      <c r="G104" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H104"/>
     </row>
     <row r="105" spans="1:8" customHeight="1" ht="51.05">
+      <c r="A105"/>
       <c r="B105" s="12">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>117</v>
+        <v>191</v>
       </c>
       <c r="D105" s="6"/>
       <c r="E105" s="4" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="F105" s="7"/>
-      <c r="G105" s="5">
-        <f>$D105*F105</f>
-        <v>0</v>
-      </c>
+      <c r="G105" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H105"/>
     </row>
     <row r="106" spans="1:8" customHeight="1" ht="51.05">
+      <c r="A106"/>
       <c r="B106" s="10">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="D106" s="6"/>
       <c r="E106" s="4" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="F106" s="7"/>
-      <c r="G106" s="5">
-        <f>$D106*F106</f>
-        <v>0</v>
-      </c>
+      <c r="G106" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H106"/>
     </row>
     <row r="107" spans="1:8" customHeight="1" ht="51.05">
+      <c r="A107"/>
       <c r="B107" s="12">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>119</v>
+        <v>193</v>
       </c>
       <c r="D107" s="6"/>
       <c r="E107" s="4" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="F107" s="7"/>
-      <c r="G107" s="5">
-        <f>$D107*F107</f>
-        <v>0</v>
-      </c>
+      <c r="G107" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H107"/>
     </row>
     <row r="108" spans="1:8" customHeight="1" ht="51.05">
+      <c r="A108"/>
       <c r="B108" s="10">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="D108" s="6"/>
       <c r="E108" s="4" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="F108" s="7"/>
-      <c r="G108" s="5">
-        <f>$D108*F108</f>
-        <v>0</v>
-      </c>
+      <c r="G108" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H108"/>
     </row>
     <row r="109" spans="1:8" customHeight="1" ht="51.05">
+      <c r="A109"/>
       <c r="B109" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="D109" s="6"/>
       <c r="E109" s="4" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="F109" s="7"/>
-      <c r="G109" s="5">
-        <f>$D109*F109</f>
-        <v>0</v>
-      </c>
+      <c r="G109" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H109"/>
     </row>
     <row r="110" spans="1:8" customHeight="1" ht="51.05">
+      <c r="A110"/>
       <c r="B110" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>122</v>
+        <v>196</v>
       </c>
       <c r="D110" s="6"/>
       <c r="E110" s="4" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="F110" s="7"/>
-      <c r="G110" s="5">
-        <f>$D110*F110</f>
-        <v>0</v>
-      </c>
+      <c r="G110" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H110"/>
     </row>
     <row r="111" spans="1:8" customHeight="1" ht="51.05">
+      <c r="A111"/>
       <c r="B111" s="12">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>123</v>
+        <v>197</v>
       </c>
       <c r="D111" s="6"/>
       <c r="E111" s="4" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="F111" s="7"/>
-      <c r="G111" s="5">
-        <f>$D111*F111</f>
-        <v>0</v>
-      </c>
+      <c r="G111" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H111"/>
     </row>
     <row r="112" spans="1:8" customHeight="1" ht="51.05">
+      <c r="A112"/>
       <c r="B112" s="10">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c r="D112" s="6"/>
       <c r="E112" s="4" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="F112" s="7"/>
-      <c r="G112" s="5">
-        <f>$D112*F112</f>
-        <v>0</v>
-      </c>
+      <c r="G112" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H112"/>
     </row>
     <row r="113" spans="1:8" customHeight="1" ht="51.05">
+      <c r="A113"/>
       <c r="B113" s="12">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>125</v>
+        <v>199</v>
       </c>
       <c r="D113" s="6"/>
       <c r="E113" s="4" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="F113" s="7"/>
-      <c r="G113" s="5">
-        <f>$D113*F113</f>
-        <v>0</v>
-      </c>
+      <c r="G113" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H113"/>
     </row>
     <row r="114" spans="1:8" customHeight="1" ht="51.05">
+      <c r="A114"/>
       <c r="B114" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="D114" s="6"/>
       <c r="E114" s="4" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="F114" s="7"/>
-      <c r="G114" s="5">
-        <f>$D114*F114</f>
-        <v>0</v>
-      </c>
+      <c r="G114" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H114"/>
     </row>
     <row r="115" spans="1:8" customHeight="1" ht="51.05">
+      <c r="A115"/>
       <c r="B115" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>127</v>
+        <v>201</v>
       </c>
       <c r="D115" s="6"/>
       <c r="E115" s="4" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="F115" s="7"/>
-      <c r="G115" s="5">
-        <f>$D115*F115</f>
-        <v>0</v>
-      </c>
+      <c r="G115" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H115"/>
     </row>
     <row r="116" spans="1:8" customHeight="1" ht="51.05">
+      <c r="A116"/>
       <c r="B116" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>128</v>
+        <v>202</v>
       </c>
       <c r="D116" s="6"/>
       <c r="E116" s="4" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="F116" s="7"/>
-      <c r="G116" s="5">
-        <f>$D116*F116</f>
-        <v>0</v>
-      </c>
+      <c r="G116" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H116"/>
     </row>
     <row r="117" spans="1:8" customHeight="1" ht="51.05">
+      <c r="A117"/>
       <c r="B117" s="12">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>129</v>
+        <v>203</v>
       </c>
       <c r="D117" s="6"/>
       <c r="E117" s="4" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="F117" s="7"/>
-      <c r="G117" s="5">
-        <f>$D117*F117</f>
-        <v>0</v>
-      </c>
+      <c r="G117" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H117"/>
     </row>
     <row r="118" spans="1:8" customHeight="1" ht="51.05">
+      <c r="A118"/>
       <c r="B118" s="10">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>130</v>
+        <v>204</v>
       </c>
       <c r="D118" s="6"/>
       <c r="E118" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F118" s="7"/>
+      <c r="G118" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H118"/>
+    </row>
+    <row r="119" spans="1:8" customHeight="1" ht="51.05">
+      <c r="A119"/>
+      <c r="B119" s="12">
+        <v>30</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D119" s="6">
+        <v>2</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="H119"/>
+    </row>
+    <row r="120" spans="1:8" customHeight="1" ht="51.05">
+      <c r="A120"/>
+      <c r="B120" s="10">
+        <v>31</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D120" s="6">
+        <v>8</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H120"/>
+    </row>
+    <row r="121" spans="1:8" customHeight="1" ht="51.05">
+      <c r="A121"/>
+      <c r="B121" s="10">
+        <v>106</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D121" s="6"/>
+      <c r="E121" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H121"/>
+    </row>
+    <row r="122" spans="1:8" customHeight="1" ht="51.05">
+      <c r="A122"/>
+      <c r="B122" s="10">
         <v>107</v>
       </c>
-      <c r="F118" s="7"/>
-      <c r="G118" s="5">
-        <f>$D118*F118</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" customHeight="1" ht="51.05">
-      <c r="B119" s="12">
-        <v>103</v>
-      </c>
-      <c r="C119" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D119" s="6"/>
-      <c r="E119" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F119" s="7"/>
-      <c r="G119" s="5">
-        <f>$D119*F119</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" customHeight="1" ht="51.05">
-      <c r="B120" s="10">
-        <v>30</v>
-      </c>
-      <c r="C120" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D120" s="6">
-        <v>2</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F120" s="7">
-        <v>1411.2120971148</v>
-      </c>
-      <c r="G120" s="5">
-        <f>$D120*F120</f>
-        <v>2822.4241942295</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" customHeight="1" ht="51.05">
-      <c r="B121" s="10">
-        <v>31</v>
-      </c>
-      <c r="C121" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="D121" s="6">
-        <v>8</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F121" s="7">
-        <v>1612.813825274</v>
-      </c>
-      <c r="G121" s="5">
-        <f>$D121*F121</f>
-        <v>12902.510602192</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" customHeight="1" ht="51.05">
-      <c r="B122" s="10">
-        <v>106</v>
-      </c>
       <c r="C122" s="11" t="s">
-        <v>134</v>
+        <v>213</v>
       </c>
       <c r="D122" s="6"/>
       <c r="E122" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F122" s="7">
-        <v>2052.6721412578</v>
-      </c>
-      <c r="G122" s="5">
-        <f>$D122*F122</f>
-        <v>0</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H122"/>
     </row>
     <row r="123" spans="1:8" customHeight="1" ht="45.15">
+      <c r="A123"/>
       <c r="B123" s="12">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>135</v>
+        <v>215</v>
       </c>
       <c r="D123" s="6"/>
       <c r="E123" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F123" s="7">
-        <v>2508.8215059818</v>
-      </c>
-      <c r="G123" s="5">
-        <f>$D123*F123</f>
-        <v>0</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H123"/>
     </row>
     <row r="124" spans="1:8" customHeight="1" ht="45.15">
+      <c r="A124"/>
       <c r="B124" s="10">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="D124" s="6"/>
       <c r="E124" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F124" s="7">
-        <v>4310.3471656918</v>
-      </c>
-      <c r="G124" s="5">
-        <f>$D124*F124</f>
-        <v>0</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H124"/>
     </row>
     <row r="125" spans="1:8" customHeight="1" ht="51.05">
+      <c r="A125"/>
       <c r="B125" s="12">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D125" s="6"/>
+        <v>219</v>
+      </c>
+      <c r="D125" s="6">
+        <v>1</v>
+      </c>
       <c r="E125" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F125" s="7">
-        <v>3926.833307274</v>
-      </c>
-      <c r="G125" s="5">
-        <f>$D125*F125</f>
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="H125"/>
     </row>
     <row r="126" spans="1:8" customHeight="1" ht="51.05">
+      <c r="A126"/>
       <c r="B126" s="10">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>138</v>
+        <v>221</v>
       </c>
       <c r="D126" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F126" s="7">
-        <v>13881.669837786</v>
-      </c>
-      <c r="G126" s="5">
-        <f>$D126*F126</f>
-        <v>13881.669837786</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H126"/>
     </row>
     <row r="127" spans="1:8" customHeight="1" ht="51.05">
+      <c r="A127"/>
       <c r="B127" s="10">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D127" s="6">
-        <v>3</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="D127" s="6"/>
       <c r="E127" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F127" s="7">
-        <v>3216.7478105066</v>
-      </c>
-      <c r="G127" s="5">
-        <f>$D127*F127</f>
-        <v>9650.2434315197</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="F127" s="7"/>
+      <c r="G127" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H127"/>
     </row>
     <row r="128" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A128"/>
       <c r="B128" s="10">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>140</v>
+        <v>225</v>
       </c>
       <c r="D128" s="6"/>
       <c r="E128" s="4" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="F128" s="7"/>
-      <c r="G128" s="5">
-        <f>$D128*F128</f>
-        <v>0</v>
+      <c r="G128" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="129" spans="1:8" customHeight="1" ht="34.95">
@@ -3689,11 +4084,11 @@
         <v>113</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="D129" s="6"/>
       <c r="E129" s="4" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="F129" s="7"/>
       <c r="G129" s="5">
@@ -3706,13 +4101,13 @@
         <v>34</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>142</v>
+        <v>226</v>
       </c>
       <c r="D130" s="6">
         <v>3</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="F130" s="7">
         <v>757.98662820906</v>
@@ -3727,11 +4122,11 @@
         <v>115</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>143</v>
+        <v>227</v>
       </c>
       <c r="D131" s="6"/>
       <c r="E131" s="4" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="F131" s="7"/>
       <c r="G131" s="5">
@@ -3744,11 +4139,11 @@
         <v>116</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>144</v>
+        <v>228</v>
       </c>
       <c r="D132" s="6"/>
       <c r="E132" s="4" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="F132" s="7"/>
       <c r="G132" s="5">
@@ -3761,11 +4156,11 @@
         <v>117</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>145</v>
+        <v>229</v>
       </c>
       <c r="D133" s="6"/>
       <c r="E133" s="4" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="F133" s="7"/>
       <c r="G133" s="5">
@@ -3778,11 +4173,11 @@
         <v>118</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>146</v>
+        <v>230</v>
       </c>
       <c r="D134" s="6"/>
       <c r="E134" s="4" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="F134" s="7">
         <v>429.61951820906</v>
@@ -3797,13 +4192,13 @@
         <v>35</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>147</v>
+        <v>231</v>
       </c>
       <c r="D135" s="6">
         <v>11</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="F135" s="7">
         <v>3008.3912416463</v>
@@ -3818,20 +4213,20 @@
         <v>36</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>148</v>
+        <v>232</v>
       </c>
       <c r="D136" s="6">
         <v>33</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="F136" s="7">
         <v>1531.7080917674</v>
       </c>
       <c r="G136" s="5">
         <f>$D136*F136</f>
-        <v>50546.367028326</v>
+        <v>50546.367028324</v>
       </c>
     </row>
     <row r="137" spans="1:8" customHeight="1" ht="51.05">
@@ -3839,13 +4234,13 @@
         <v>37</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>149</v>
+        <v>233</v>
       </c>
       <c r="D137" s="6">
         <v>372</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="F137" s="7">
         <v>879.91035140612</v>
@@ -3860,20 +4255,20 @@
         <v>38</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>150</v>
+        <v>234</v>
       </c>
       <c r="D138" s="6">
         <v>41</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>151</v>
+        <v>235</v>
       </c>
       <c r="F138" s="7">
         <v>1143.0777334061</v>
       </c>
       <c r="G138" s="5">
         <f>$D138*F138</f>
-        <v>46866.187069651</v>
+        <v>46866.18706965</v>
       </c>
     </row>
     <row r="139" spans="1:8" customHeight="1" ht="51.05">
@@ -3881,20 +4276,20 @@
         <v>39</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>152</v>
+        <v>236</v>
       </c>
       <c r="D139" s="6">
         <v>5</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>151</v>
+        <v>235</v>
       </c>
       <c r="F139" s="7">
         <v>1285.3195394061</v>
       </c>
       <c r="G139" s="5">
         <f>$D139*F139</f>
-        <v>6426.5976970306</v>
+        <v>6426.5976970305</v>
       </c>
     </row>
     <row r="140" spans="1:8" customHeight="1" ht="30.1">
@@ -3902,11 +4297,11 @@
         <v>122</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>153</v>
+        <v>237</v>
       </c>
       <c r="D140" s="6"/>
       <c r="E140" s="4" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="F140" s="7">
         <v>235.6769966913</v>
@@ -3921,11 +4316,11 @@
         <v>123</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>154</v>
+        <v>238</v>
       </c>
       <c r="D141" s="6"/>
       <c r="E141" s="4" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="F141" s="7">
         <v>406.8574130773</v>
@@ -3940,13 +4335,13 @@
         <v>40</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>155</v>
+        <v>239</v>
       </c>
       <c r="D142" s="6">
         <v>418</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="F142" s="7">
         <v>96.136613294725</v>
@@ -3961,11 +4356,11 @@
         <v>124</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>156</v>
+        <v>240</v>
       </c>
       <c r="D143" s="6"/>
       <c r="E143" s="4" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="F143" s="7">
         <v>1478.9022372179</v>
@@ -3980,11 +4375,11 @@
         <v>125</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>157</v>
+        <v>241</v>
       </c>
       <c r="D144" s="6"/>
       <c r="E144" s="4" t="s">
-        <v>158</v>
+        <v>242</v>
       </c>
       <c r="F144" s="7"/>
       <c r="G144" s="5">
@@ -3997,11 +4392,11 @@
         <v>126</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>159</v>
+        <v>243</v>
       </c>
       <c r="D145" s="6"/>
       <c r="E145" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F145" s="7">
         <v>2330.7612086809</v>
@@ -4016,20 +4411,20 @@
         <v>41</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="D146" s="6">
         <v>37</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F146" s="7">
         <v>1622.2451130307</v>
       </c>
       <c r="G146" s="5">
         <f>$D146*F146</f>
-        <v>60023.069182135</v>
+        <v>60023.069182136</v>
       </c>
     </row>
     <row r="147" spans="1:8" customHeight="1" ht="18">
@@ -4037,13 +4432,13 @@
         <v>42</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="D147" s="6">
         <v>34</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="F147" s="7">
         <v>153.37231868022</v>
@@ -4058,20 +4453,20 @@
         <v>43</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>162</v>
+        <v>246</v>
       </c>
       <c r="D148" s="6">
         <v>24</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="F148" s="7">
         <v>204.42964619074</v>
       </c>
       <c r="G148" s="5">
         <f>$D148*F148</f>
-        <v>4906.3115085777</v>
+        <v>4906.3115085778</v>
       </c>
     </row>
     <row r="149" spans="1:8" customHeight="1" ht="18">
@@ -4079,20 +4474,20 @@
         <v>44</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="D149" s="6">
         <v>68</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="F149" s="7">
         <v>132.75906833478</v>
       </c>
       <c r="G149" s="5">
         <f>$D149*F149</f>
-        <v>9027.6166467648</v>
+        <v>9027.616646765</v>
       </c>
     </row>
     <row r="150" spans="1:8" customHeight="1" ht="51.05">
@@ -4100,20 +4495,20 @@
         <v>45</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>164</v>
+        <v>248</v>
       </c>
       <c r="D150" s="6">
         <v>1365</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="F150" s="7">
         <v>13.674443125137</v>
       </c>
       <c r="G150" s="5">
         <f>$D150*F150</f>
-        <v>18665.614865813</v>
+        <v>18665.614865812</v>
       </c>
     </row>
     <row r="151" spans="1:8" customHeight="1" ht="51.05">
@@ -4121,13 +4516,13 @@
         <v>46</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>166</v>
+        <v>250</v>
       </c>
       <c r="D151" s="6">
         <v>20</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="F151" s="7">
         <v>259.6190729826</v>
@@ -4142,20 +4537,20 @@
         <v>47</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>167</v>
+        <v>251</v>
       </c>
       <c r="D152" s="6">
         <v>3</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="F152" s="7">
         <v>1855.778581378</v>
       </c>
       <c r="G152" s="5">
         <f>$D152*F152</f>
-        <v>5567.3357441339</v>
+        <v>5567.335744134</v>
       </c>
     </row>
     <row r="153" spans="1:8" customHeight="1" ht="47.3">
@@ -4163,20 +4558,20 @@
         <v>48</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>168</v>
+        <v>252</v>
       </c>
       <c r="D153" s="6">
         <v>13</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F153" s="7">
         <v>518.98524900278</v>
       </c>
       <c r="G153" s="5">
         <f>$D153*F153</f>
-        <v>6746.8082370362</v>
+        <v>6746.8082370361</v>
       </c>
     </row>
     <row r="154" spans="1:8" customHeight="1" ht="45.15">
@@ -4184,13 +4579,13 @@
         <v>49</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="D154" s="6">
         <v>1</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>170</v>
+        <v>254</v>
       </c>
       <c r="F154" s="7">
         <v>9237.9566828314</v>
@@ -4205,13 +4600,13 @@
         <v>50</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>171</v>
+        <v>255</v>
       </c>
       <c r="D155" s="6">
         <v>10</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>172</v>
+        <v>256</v>
       </c>
       <c r="F155" s="7">
         <v>1229.8077085186</v>
@@ -4226,13 +4621,13 @@
         <v>51</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>173</v>
+        <v>257</v>
       </c>
       <c r="D156" s="6">
         <v>19</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F156" s="7">
         <v>238.0140095192</v>
@@ -4247,11 +4642,11 @@
         <v>138</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>174</v>
+        <v>258</v>
       </c>
       <c r="D157" s="6"/>
       <c r="E157" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F157" s="7"/>
       <c r="G157" s="5">
@@ -4264,13 +4659,13 @@
         <v>52</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>175</v>
+        <v>259</v>
       </c>
       <c r="D158" s="6">
         <v>1</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F158" s="7">
         <v>970.74427302625</v>
@@ -4285,13 +4680,13 @@
         <v>53</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>176</v>
+        <v>260</v>
       </c>
       <c r="D159" s="6">
         <v>9</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>177</v>
+        <v>261</v>
       </c>
       <c r="F159" s="7">
         <v>328.05201885966</v>
@@ -4306,11 +4701,11 @@
         <v>141</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>178</v>
+        <v>262</v>
       </c>
       <c r="D160" s="6"/>
       <c r="E160" s="4" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="F160" s="7"/>
       <c r="G160" s="5">
@@ -4323,11 +4718,11 @@
         <v>142</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>179</v>
+        <v>263</v>
       </c>
       <c r="D161" s="6"/>
       <c r="E161" s="4" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="F161" s="7">
         <v>328.2561367391</v>
@@ -4342,11 +4737,11 @@
         <v>143</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>180</v>
+        <v>264</v>
       </c>
       <c r="D162" s="6"/>
       <c r="E162" s="4" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="F162" s="7">
         <v>569.21126503885</v>
@@ -4361,11 +4756,11 @@
         <v>144</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>181</v>
+        <v>265</v>
       </c>
       <c r="D163" s="6"/>
       <c r="E163" s="4" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="F163" s="7"/>
       <c r="G163" s="5">
@@ -4378,11 +4773,11 @@
         <v>145</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>182</v>
+        <v>266</v>
       </c>
       <c r="D164" s="6"/>
       <c r="E164" s="4" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="F164" s="7"/>
       <c r="G164" s="5">
@@ -4395,13 +4790,13 @@
         <v>54</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>183</v>
+        <v>267</v>
       </c>
       <c r="D165" s="6">
         <v>9</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="F165" s="7">
         <v>855.7423415391</v>
@@ -4416,11 +4811,11 @@
         <v>147</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>184</v>
+        <v>268</v>
       </c>
       <c r="D166" s="6"/>
       <c r="E166" s="4" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="F166" s="7"/>
       <c r="G166" s="5">
@@ -4433,11 +4828,11 @@
         <v>148</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>185</v>
+        <v>269</v>
       </c>
       <c r="D167" s="6"/>
       <c r="E167" s="4" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="F167" s="7"/>
       <c r="G167" s="5">
@@ -4450,20 +4845,20 @@
         <v>55</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>186</v>
+        <v>270</v>
       </c>
       <c r="D168" s="6">
         <v>11</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="F168" s="7">
         <v>510.08335159586</v>
       </c>
       <c r="G168" s="5">
         <f>$D168*F168</f>
-        <v>5610.9168675544</v>
+        <v>5610.9168675545</v>
       </c>
     </row>
     <row r="169" spans="1:8" customHeight="1" ht="45.15">
@@ -4471,11 +4866,11 @@
         <v>150</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>187</v>
+        <v>271</v>
       </c>
       <c r="D169" s="6"/>
       <c r="E169" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F169" s="7">
         <v>9161.5827936035</v>
@@ -4490,11 +4885,11 @@
         <v>151</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>188</v>
+        <v>272</v>
       </c>
       <c r="D170" s="6"/>
       <c r="E170" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F170" s="7">
         <v>9161.5853187569</v>
@@ -4509,11 +4904,11 @@
         <v>152</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>189</v>
+        <v>273</v>
       </c>
       <c r="D171" s="6"/>
       <c r="E171" s="4" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="F171" s="7"/>
       <c r="G171" s="5">
@@ -4523,7 +4918,7 @@
     </row>
     <row r="172" spans="1:8" customHeight="1" ht="42.75">
       <c r="B172" s="21" t="s">
-        <v>190</v>
+        <v>274</v>
       </c>
       <c r="C172" s="22"/>
       <c r="D172" s="22"/>
@@ -4536,18 +4931,18 @@
     </row>
     <row r="174" spans="1:8">
       <c r="C174" s="1" t="s">
-        <v>191</v>
+        <v>275</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>192</v>
+        <v>276</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="C178" s="1" t="s">
-        <v>193</v>
+        <v>277</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>194</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/Archivos/archivo2_656ea76570cec.xlsx
+++ b/Archivos/archivo2_656ea76570cec.xlsx
@@ -10,16 +10,19 @@
     <sheet name="ICM (2)" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ICM (2)'!$C$8:$F$172</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'ICM (2)'!$2:$8</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'ICM (2)'!$A$2:$G$171</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ICM (2)'!$C$7:$F$171</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'ICM (2)'!$2:$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'ICM (2)'!$A$2:$G$170</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="331">
+  <si>
+    <t>División de Distribución Jalisco</t>
+  </si>
   <si>
     <t>Subgerencia de Planeación, Proyectos y Construcción</t>
   </si>
@@ -33,15 +36,12 @@
     <t>Zona:</t>
   </si>
   <si>
-    <t>sad</t>
+    <t>06/12/2023</t>
   </si>
   <si>
     <t>Obra:</t>
   </si>
   <si>
-    <t>asd</t>
-  </si>
-  <si>
     <t>N°</t>
   </si>
   <si>
@@ -81,18 +81,18 @@
     <t>Suministro e Instalación de Poste de Concreto de 13 metros, incluye traslado desde el almacén de contratista hasta la obra, mano de obra de instalacion y reparación de banqueta igual a la existente.</t>
   </si>
   <si>
+    <t>Poste</t>
+  </si>
+  <si>
+    <t>$10,624.85</t>
+  </si>
+  <si>
+    <t>Suministro e Instalación de Poste de Concreto de 12 metros, incluye traslado desde el almacén de contratista hasta la obra, mano de obra de instalacion y reparación de banqueta igual a la existente.</t>
+  </si>
+  <si>
     <t>Popo</t>
   </si>
   <si>
-    <t>Poste</t>
-  </si>
-  <si>
-    <t>$10,624.85</t>
-  </si>
-  <si>
-    <t>Suministro e Instalación de Poste de Concreto de 12 metros, incluye traslado desde el almacén de contratista hasta la obra, mano de obra de instalacion y reparación de banqueta igual a la existente.</t>
-  </si>
-  <si>
     <t>$10,624.86</t>
   </si>
   <si>
@@ -702,6 +702,12 @@
     <t>Retiro e instalación de cortacircuito fusible CCF, en misma o diferente estructura, incluye suministro de conector LV, cable de CU2 para conexión y mano de obra.</t>
   </si>
   <si>
+    <t>$757.99</t>
+  </si>
+  <si>
+    <t>$2,273.96</t>
+  </si>
+  <si>
     <t>Suministro e Instalación de ADOM en estructura existente 13kV, y lo necesario para su instalacion.</t>
   </si>
   <si>
@@ -714,130 +720,280 @@
     <t>Retiro e instalación de apartarrayo en misma o diferente estructura, incl. materiales, mano de obra y herramienta.</t>
   </si>
   <si>
+    <t>$429.62</t>
+  </si>
+  <si>
     <t>Suministro y elaboración de Sistema de Tierra con valores conforme a las Normas de Construcción, formado mínimo por 3 electrodos, Cable ACS 7 N9 y soldadura exotérmica. (Incluye Bajante desde equipo y conexión).</t>
   </si>
   <si>
+    <t>$3,008.39</t>
+  </si>
+  <si>
+    <t>$33,092.30</t>
+  </si>
+  <si>
     <t>Suministro e instalación de bajante (Cable ACS 7 N9 y soldadura exotérmica) y electrodo de tierra, incluye cepa y reparación del terreno en el sitio de su instalación.</t>
   </si>
   <si>
+    <t>$1,531.71</t>
+  </si>
+  <si>
+    <t>$50,546.37</t>
+  </si>
+  <si>
     <t>Suministro e instalación de acometida aérea hasta la base de medición, incluye: suministro, tendido y tensionado del cable de acometida (1+1)6 AAC (aprox 28 m) y conectador tipo cuña (UDC)</t>
   </si>
   <si>
+    <t>$879.91</t>
+  </si>
+  <si>
+    <t>$327,326.65</t>
+  </si>
+  <si>
     <t>Suministro e instalación de acometida aérea hasta la base de medición, incluye: suministro, tendido y tensionado del cable de acometida (2+1)6 AAC (aprox 28 m) y conectador tipo cuña (UDC)</t>
   </si>
   <si>
     <t>Acometida</t>
   </si>
   <si>
+    <t>$1,143.08</t>
+  </si>
+  <si>
+    <t>$46,866.19</t>
+  </si>
+  <si>
     <t>Suministro e instalación de acometida aérea hasta la base de medición, incluye: suministro, tendido y tensionado del cable de acometida (3+1)6 AAC (aprox 28 m) y conectador tipo cuña (UDC)</t>
   </si>
   <si>
-    <t xml:space="preserve">Retiro e instalación de acometida existente aérea (sobre mismo poste), comprende la desconexión, retiro y tensionado de acometida existente y suministro de conectadores tipo cuña (UDC). </t>
+    <t>$1,285.32</t>
+  </si>
+  <si>
+    <t>$6,426.60</t>
+  </si>
+  <si>
+    <t>Retiro e instalación de acometida existente aérea (sobre mismo poste), comprende la desconexión, retiro y tensionado de acometida existente y suministro de conectadores tipo cuña (UDC).</t>
+  </si>
+  <si>
+    <t>$235.68</t>
   </si>
   <si>
     <t>Retiro e instalación de acometida existente aérea (sobre poste diferente), comprende la desconexión, retiro y tensionado de acometida existente, empalme de conductor y suministro de conectadores tipo cuña (UDC), considerando ampliación de acometida.</t>
   </si>
   <si>
+    <t>$406.86</t>
+  </si>
+  <si>
     <t>Retiro de acometida aérea incluyendo el cable del interior del tubo conduit; considerar el embobinado y traslado hasta el almacén de CFE.</t>
   </si>
   <si>
+    <t>$96.14</t>
+  </si>
+  <si>
+    <t>$40,185.10</t>
+  </si>
+  <si>
     <t>Suministro e instalación de preparación domiciliaria, preparada por base tipo soquet, tubo conduit 32mm, mufa seca 32mm, electrodo de tierra de 1.5m y tubo conduit 12mm, para alojar el cable de conexión a tierra.</t>
   </si>
   <si>
+    <t>$1,478.90</t>
+  </si>
+  <si>
     <t>Suministro e instalación de murete sencillo para recepción de acometida, incl interruptor termomagnético, cable forrado de cobre cuf 8 y electrodo de tierra de 1.5 mts.</t>
   </si>
   <si>
     <t>Murete</t>
   </si>
   <si>
-    <t>Retiro e Instalacion de poste de concreto cualquier medida,  incluye mano de obra de excavación, retiro, instalación, reparación de banqueta y retiro de escombro producto de la excavación.</t>
+    <t>Retiro e Instalacion de poste de concreto cualquier medida, incluye mano de obra de excavación, retiro, instalación, reparación de banqueta y retiro de escombro producto de la excavación.</t>
+  </si>
+  <si>
+    <t>$2,330.76</t>
   </si>
   <si>
     <t>Retiro de poste, incluye traslado hasta el almacén de CFE y reparación de banqueta</t>
   </si>
   <si>
-    <t xml:space="preserve"> Retiro de bastidores, incluye traslado hasta el almacén de CFE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Retiro de crucetas tipo "P", incluye traslado hasta el almacén de CFE</t>
+    <t>$1,622.25</t>
+  </si>
+  <si>
+    <t>$60,023.07</t>
+  </si>
+  <si>
+    <t>Retiro de bastidores, incluye traslado hasta el almacén de CFE</t>
+  </si>
+  <si>
+    <t>$153.37</t>
+  </si>
+  <si>
+    <t>$5,214.66</t>
+  </si>
+  <si>
+    <t>Retiro de crucetas tipo "P", incluye traslado hasta el almacén de CFE</t>
+  </si>
+  <si>
+    <t>$204.43</t>
+  </si>
+  <si>
+    <t>$4,906.31</t>
   </si>
   <si>
     <t>Retiro de aisladores primarios, incluye traslado hasta el almacén de CFE</t>
   </si>
   <si>
+    <t>$132.76</t>
+  </si>
+  <si>
+    <t>$9,027.62</t>
+  </si>
+  <si>
     <t>Retiro de Conductores, incluye el embobinado en carretes y traslado hasta el almacén de CFE.</t>
   </si>
   <si>
+    <t>1,365</t>
+  </si>
+  <si>
     <t>Kgs.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Retiro de equipo menor, incluye traslado hasta el almacén de CFE</t>
+    <t>$13.67</t>
+  </si>
+  <si>
+    <t>$18,665.61</t>
+  </si>
+  <si>
+    <t>Retiro de equipo menor, incluye traslado hasta el almacén de CFE</t>
+  </si>
+  <si>
+    <t>$259.62</t>
+  </si>
+  <si>
+    <t>$5,192.38</t>
   </si>
   <si>
     <t>Retiro de equipo mayor, incluye traslado hasta el almacén de CFE</t>
   </si>
   <si>
+    <t>$1,855.78</t>
+  </si>
+  <si>
+    <t>$5,567.34</t>
+  </si>
+  <si>
     <t>Retiro de retenidas cualquier tipo, incluye el traslado de materiales al almacén de CFE, el corte del perno Ancla 1PA, la reparación de la banqueta o terreno en el punto de trabajo similar al existente.</t>
   </si>
   <si>
+    <t>$518.99</t>
+  </si>
+  <si>
+    <t>$6,746.81</t>
+  </si>
+  <si>
     <t>Elaboración de plano definitivo en DEPRORED, Georeferenciado incluyendo coordenadas con GPS. (Entregar DEPRORED por cada estimación de los trabajos ejecutados, el cual se pagara al término del contrato como 1 Lote).</t>
   </si>
   <si>
     <t>Lote</t>
   </si>
   <si>
+    <t>$9,237.96</t>
+  </si>
+  <si>
     <t>Pruebas de Campo, comprende pruebas de puesta en servicio en la red (medición a sistemas de tierra y tensiones, en el equipo y en remates), entregando reporte por área de transformación.</t>
   </si>
   <si>
     <t>Prueba</t>
   </si>
   <si>
+    <t>$1,229.81</t>
+  </si>
+  <si>
+    <t>$12,298.08</t>
+  </si>
+  <si>
     <t>Rotulado preventivo de postes, hasta 1.5 m del piso de acuerdo a lo indicado en las normas de construcción, fondo amarillo y franjas negras</t>
   </si>
   <si>
+    <t>$238.01</t>
+  </si>
+  <si>
+    <t>$4,522.27</t>
+  </si>
+  <si>
     <t>Rotulado de postes, de acuerdo a lo indicado en las normas de construcción, fondo amarillo con letras y números negros.</t>
   </si>
   <si>
     <t>Replomear Poste, incluye reparación de banqueta o terreno similar al existente.</t>
   </si>
   <si>
+    <t>$970.74</t>
+  </si>
+  <si>
     <t>Tensionado de conductores existentes</t>
   </si>
   <si>
     <t>Claro interpostal</t>
   </si>
   <si>
+    <t>$328.05</t>
+  </si>
+  <si>
+    <t>$2,952.47</t>
+  </si>
+  <si>
     <t>Elaborar doble remate en Baja Tensión Red Abierta, incluye suministro de herrajes, aisladores, conectadores para acometidas y remates preformados</t>
   </si>
   <si>
     <t>Suministro e instalación de Grapa Remate RAL-8.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Suministro e instalación de aislador 13SHL45N</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Suministro e instalación de aislador 23SHL45N</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Suministro e instalación de aislador 33SHL45N</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Suministro e instalación de aislador 13PD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Suministro e instalación de aislador 23PD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Suministro e instalación de aislador 33PD</t>
+    <t>$328.26</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de aislador 13SHL45N</t>
+  </si>
+  <si>
+    <t>$569.21</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de aislador 23SHL45N</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de aislador 33SHL45N</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de aislador 13PD</t>
+  </si>
+  <si>
+    <t>$855.74</t>
+  </si>
+  <si>
+    <t>$7,701.68</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de aislador 23PD</t>
+  </si>
+  <si>
+    <t>Suministro e instalación de aislador 33PD</t>
   </si>
   <si>
     <t>Retiro e instalación de bastidor de baja tensión, en mismo o diferente sitio, incluye la mano de obra de retiro e instalación de la estructura y armado del tipo de estructura de la que se trate, (paso o remate).</t>
   </si>
   <si>
-    <t xml:space="preserve">Adecuación de sitio para trabajos sobre línea energizada (Intercalado por parte de CFE). Incluye suministro y traslado de poste PCR-13-600, excavación de la cepa, mano de obra y materiales para reparación de baqueta y retiro de material producto de la excavación.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adecuación de sitio para trabajos sobre línea energizada (Intercalado por parte de CFE). Incluye suministro y traslado de poste PCR-12-750, excavación de la cepa, mano de obra y materiales para reparación de baqueta y retiro de material producto de la excavación.  </t>
+    <t>$510.08</t>
+  </si>
+  <si>
+    <t>$5,610.92</t>
+  </si>
+  <si>
+    <t>Adecuación de sitio para trabajos sobre línea energizada (Intercalado por parte de CFE). Incluye suministro y traslado de poste PCR-13-600, excavación de la cepa, mano de obra y materiales para reparación de baqueta y retiro de material producto de la excavación.</t>
+  </si>
+  <si>
+    <t>$9,161.58</t>
+  </si>
+  <si>
+    <t>Adecuación de sitio para trabajos sobre línea energizada (Intercalado por parte de CFE). Incluye suministro y traslado de poste PCR-12-750, excavación de la cepa, mano de obra y materiales para reparación de baqueta y retiro de material producto de la excavación.</t>
+  </si>
+  <si>
+    <t>$9,161.59</t>
   </si>
   <si>
     <t>Suministro e instalacion de conector tipo estribo Cal. 336, incluye conector perico, alambre de cobre y conector cil 1/0 T.M.</t>
@@ -856,9 +1012,6 @@
   </si>
   <si>
     <t>Superintendente de Zona</t>
-  </si>
-  <si>
-    <t>División de Distribución Jalisco</t>
   </si>
 </sst>
 </file>
@@ -1009,13 +1162,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1027,6 +1189,17 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1034,6 +1207,15 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
       <bottom style="thin">
@@ -1053,54 +1235,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1112,11 +1254,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -1166,77 +1319,71 @@
     <xf xfId="0" fontId="1" numFmtId="166" fillId="0" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="1"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="1"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="1"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="1"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1626,11 +1773,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H178"/>
+  <dimension ref="A1:H177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G172" sqref="G172"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G171" sqref="G171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="11.453125" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1647,128 +1794,132 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>279</v>
-      </c>
+      <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" customHeight="1" ht="27.8" s="2" customFormat="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:8" customHeight="1" ht="28.5" s="2" customFormat="1">
       <c r="A3" s="2"/>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" spans="1:8" customHeight="1" ht="38.3" s="2" customFormat="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="31"/>
-    </row>
-    <row r="5" spans="1:8" customHeight="1" ht="21.8" s="2" customFormat="1">
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:8" customHeight="1" ht="23.65" s="2" customFormat="1">
       <c r="A5" s="2"/>
       <c r="B5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="E5" s="22"/>
+      <c r="F5" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="1:8" customHeight="1" ht="26.35" s="2" customFormat="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="31"/>
-    </row>
-    <row r="6" spans="1:8" customHeight="1" ht="20.95" s="2" customFormat="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
     </row>
     <row r="7" spans="1:8" customHeight="1" ht="20.95" s="2" customFormat="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="14" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" customHeight="1" ht="20.95" s="2" customFormat="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="9">
+    <row r="8" spans="1:8" customHeight="1" ht="16.55">
+      <c r="A8"/>
+      <c r="B8" s="10">
         <v>1</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" customHeight="1" ht="16.55">
+      <c r="G8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8"/>
+    </row>
+    <row r="9" spans="1:8" customHeight="1" ht="18">
       <c r="A9"/>
-      <c r="B9" s="10">
+      <c r="B9" s="12">
         <v>2</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="5" t="s">
@@ -1776,45 +1927,45 @@
       </c>
       <c r="H9"/>
     </row>
-    <row r="10" spans="1:8" customHeight="1" ht="18">
+    <row r="10" spans="1:8" customHeight="1" ht="47.95">
       <c r="A10"/>
-      <c r="B10" s="12">
+      <c r="B10" s="10">
         <v>3</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="5" t="e">
-        <v>#VALUE!</v>
+      <c r="G10" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="H10"/>
     </row>
-    <row r="11" spans="1:8" customHeight="1" ht="47.95">
+    <row r="11" spans="1:8" customHeight="1" ht="30.1">
       <c r="A11"/>
       <c r="B11" s="10">
         <v>4</v>
       </c>
       <c r="C11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="6"/>
       <c r="E11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>16</v>
+      <c r="G11" s="5" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="H11"/>
     </row>
@@ -1828,7 +1979,7 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>26</v>
@@ -1838,7 +1989,7 @@
       </c>
       <c r="H12"/>
     </row>
-    <row r="13" spans="1:8" customHeight="1" ht="30.1">
+    <row r="13" spans="1:8" customHeight="1" ht="45.15">
       <c r="A13"/>
       <c r="B13" s="10">
         <v>1</v>
@@ -1850,7 +2001,7 @@
         <v>37</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>28</v>
@@ -1860,9 +2011,9 @@
       </c>
       <c r="H13"/>
     </row>
-    <row r="14" spans="1:8" customHeight="1" ht="45.15">
+    <row r="14" spans="1:8" customHeight="1" ht="30.1">
       <c r="A14"/>
-      <c r="B14" s="10">
+      <c r="B14" s="12">
         <v>2</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -1884,7 +2035,7 @@
     </row>
     <row r="15" spans="1:8" customHeight="1" ht="30.1">
       <c r="A15"/>
-      <c r="B15" s="12">
+      <c r="B15" s="10">
         <v>8</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -1902,7 +2053,7 @@
       </c>
       <c r="H15"/>
     </row>
-    <row r="16" spans="1:8" customHeight="1" ht="30.1">
+    <row r="16" spans="1:8" customHeight="1" ht="32.55">
       <c r="A16"/>
       <c r="B16" s="10">
         <v>3</v>
@@ -1924,9 +2075,9 @@
       </c>
       <c r="H16"/>
     </row>
-    <row r="17" spans="1:8" customHeight="1" ht="32.55">
+    <row r="17" spans="1:8" customHeight="1" ht="50.55">
       <c r="A17"/>
-      <c r="B17" s="10">
+      <c r="B17" s="12">
         <v>4</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -1946,9 +2097,9 @@
       </c>
       <c r="H17"/>
     </row>
-    <row r="18" spans="1:8" customHeight="1" ht="50.55">
+    <row r="18" spans="1:8" customHeight="1" ht="49.85">
       <c r="A18"/>
-      <c r="B18" s="12">
+      <c r="B18" s="10">
         <v>11</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -1966,7 +2117,7 @@
       </c>
       <c r="H18"/>
     </row>
-    <row r="19" spans="1:8" customHeight="1" ht="49.85">
+    <row r="19" spans="1:8" customHeight="1" ht="30.1">
       <c r="A19"/>
       <c r="B19" s="10">
         <v>5</v>
@@ -1988,9 +2139,9 @@
       </c>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:8" customHeight="1" ht="30.1">
+    <row r="20" spans="1:8" customHeight="1" ht="34.15">
       <c r="A20"/>
-      <c r="B20" s="10">
+      <c r="B20" s="12">
         <v>6</v>
       </c>
       <c r="C20" s="11" t="s">
@@ -2010,9 +2161,9 @@
       </c>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:8" customHeight="1" ht="34.15">
+    <row r="21" spans="1:8" customHeight="1" ht="47.15">
       <c r="A21"/>
-      <c r="B21" s="12">
+      <c r="B21" s="10">
         <v>7</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -2032,7 +2183,7 @@
       </c>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:8" customHeight="1" ht="47.15">
+    <row r="22" spans="1:8" customHeight="1" ht="36">
       <c r="A22"/>
       <c r="B22" s="10">
         <v>8</v>
@@ -2054,9 +2205,9 @@
       </c>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:8" customHeight="1" ht="36">
+    <row r="23" spans="1:8" customHeight="1" ht="45.15">
       <c r="A23"/>
-      <c r="B23" s="10">
+      <c r="B23" s="12">
         <v>9</v>
       </c>
       <c r="C23" s="11" t="s">
@@ -2076,9 +2227,9 @@
       </c>
       <c r="H23"/>
     </row>
-    <row r="24" spans="1:8" customHeight="1" ht="45.15">
+    <row r="24" spans="1:8" customHeight="1" ht="33.05">
       <c r="A24"/>
-      <c r="B24" s="12">
+      <c r="B24" s="10">
         <v>17</v>
       </c>
       <c r="C24" s="11" t="s">
@@ -2096,7 +2247,7 @@
       </c>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:8" customHeight="1" ht="33.05">
+    <row r="25" spans="1:8" customHeight="1" ht="34.95">
       <c r="A25"/>
       <c r="B25" s="10">
         <v>18</v>
@@ -2118,10 +2269,10 @@
     </row>
     <row r="26" spans="1:8" customHeight="1" ht="34.95">
       <c r="A26"/>
-      <c r="B26" s="10">
+      <c r="B26" s="12">
         <v>19</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="15" t="s">
         <v>63</v>
       </c>
       <c r="D26" s="6"/>
@@ -2136,7 +2287,7 @@
     </row>
     <row r="27" spans="1:8" customHeight="1" ht="34.95">
       <c r="A27"/>
-      <c r="B27" s="12">
+      <c r="B27" s="10">
         <v>20</v>
       </c>
       <c r="C27" s="15" t="s">
@@ -2157,7 +2308,7 @@
       <c r="B28" s="10">
         <v>21</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="11" t="s">
         <v>65</v>
       </c>
       <c r="D28" s="6"/>
@@ -2177,7 +2328,7 @@
       <c r="B29" s="10">
         <v>22</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="15" t="s">
         <v>67</v>
       </c>
       <c r="D29" s="6"/>
@@ -2192,7 +2343,7 @@
     </row>
     <row r="30" spans="1:8" customHeight="1" ht="34.95">
       <c r="A30"/>
-      <c r="B30" s="10">
+      <c r="B30" s="12">
         <v>23</v>
       </c>
       <c r="C30" s="15" t="s">
@@ -2210,8 +2361,8 @@
     </row>
     <row r="31" spans="1:8" customHeight="1" ht="34.95">
       <c r="A31"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="15" t="s">
+      <c r="B31" s="10"/>
+      <c r="C31" s="11" t="s">
         <v>69</v>
       </c>
       <c r="D31" s="6"/>
@@ -2229,7 +2380,7 @@
     <row r="32" spans="1:8" customHeight="1" ht="34.95">
       <c r="A32"/>
       <c r="B32" s="10"/>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="15" t="s">
         <v>71</v>
       </c>
       <c r="D32" s="6"/>
@@ -2261,7 +2412,7 @@
     <row r="34" spans="1:8" customHeight="1" ht="34.95">
       <c r="A34"/>
       <c r="B34" s="10"/>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="11" t="s">
         <v>73</v>
       </c>
       <c r="D34" s="6"/>
@@ -2279,7 +2430,7 @@
     <row r="35" spans="1:8" customHeight="1" ht="34.95">
       <c r="A35"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="15" t="s">
         <v>75</v>
       </c>
       <c r="D35" s="6"/>
@@ -2313,7 +2464,7 @@
       <c r="B37" s="10">
         <v>10</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="11" t="s">
         <v>77</v>
       </c>
       <c r="D37" s="6">
@@ -2332,10 +2483,10 @@
     </row>
     <row r="38" spans="1:8" customHeight="1" ht="34.95">
       <c r="A38"/>
-      <c r="B38" s="10">
+      <c r="B38" s="12">
         <v>25</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="15" t="s">
         <v>80</v>
       </c>
       <c r="D38" s="6"/>
@@ -2350,7 +2501,7 @@
     </row>
     <row r="39" spans="1:8" customHeight="1" ht="34.95">
       <c r="A39"/>
-      <c r="B39" s="12">
+      <c r="B39" s="10">
         <v>26</v>
       </c>
       <c r="C39" s="15" t="s">
@@ -2371,7 +2522,7 @@
       <c r="B40" s="10">
         <v>27</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="11" t="s">
         <v>82</v>
       </c>
       <c r="D40" s="6"/>
@@ -2391,7 +2542,7 @@
       <c r="B41" s="10">
         <v>28</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="15" t="s">
         <v>84</v>
       </c>
       <c r="D41" s="6"/>
@@ -2406,7 +2557,7 @@
     </row>
     <row r="42" spans="1:8" customHeight="1" ht="34.95">
       <c r="A42"/>
-      <c r="B42" s="10">
+      <c r="B42" s="12">
         <v>29</v>
       </c>
       <c r="C42" s="15" t="s">
@@ -2424,10 +2575,10 @@
     </row>
     <row r="43" spans="1:8" customHeight="1" ht="34.95">
       <c r="A43"/>
-      <c r="B43" s="12">
+      <c r="B43" s="10">
         <v>11</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="11" t="s">
         <v>86</v>
       </c>
       <c r="D43" s="6">
@@ -2446,10 +2597,10 @@
     </row>
     <row r="44" spans="1:8" customHeight="1" ht="34.95">
       <c r="A44"/>
-      <c r="B44" s="10">
+      <c r="B44" s="12">
         <v>31</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="15" t="s">
         <v>89</v>
       </c>
       <c r="D44" s="6"/>
@@ -2464,7 +2615,7 @@
     </row>
     <row r="45" spans="1:8" customHeight="1" ht="34.95">
       <c r="A45"/>
-      <c r="B45" s="12">
+      <c r="B45" s="10">
         <v>32</v>
       </c>
       <c r="C45" s="15" t="s">
@@ -2485,7 +2636,7 @@
       <c r="B46" s="10">
         <v>12</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="11" t="s">
         <v>91</v>
       </c>
       <c r="D46" s="6">
@@ -2507,7 +2658,7 @@
       <c r="B47" s="10">
         <v>34</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D47" s="6"/>
@@ -2522,7 +2673,7 @@
     </row>
     <row r="48" spans="1:8" customHeight="1" ht="34.95">
       <c r="A48"/>
-      <c r="B48" s="10">
+      <c r="B48" s="12">
         <v>35</v>
       </c>
       <c r="C48" s="15" t="s">
@@ -2540,10 +2691,10 @@
     </row>
     <row r="49" spans="1:8" customHeight="1" ht="34.95">
       <c r="A49"/>
-      <c r="B49" s="12">
+      <c r="B49" s="10">
         <v>13</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="11" t="s">
         <v>96</v>
       </c>
       <c r="D49" s="6">
@@ -2562,10 +2713,10 @@
     </row>
     <row r="50" spans="1:8" customHeight="1" ht="34.95">
       <c r="A50"/>
-      <c r="B50" s="10">
+      <c r="B50" s="12">
         <v>37</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="15" t="s">
         <v>98</v>
       </c>
       <c r="D50" s="6"/>
@@ -2580,7 +2731,7 @@
     </row>
     <row r="51" spans="1:8" customHeight="1" ht="34.95">
       <c r="A51"/>
-      <c r="B51" s="12">
+      <c r="B51" s="10">
         <v>38</v>
       </c>
       <c r="C51" s="15" t="s">
@@ -2601,7 +2752,7 @@
       <c r="B52" s="10">
         <v>14</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="11" t="s">
         <v>100</v>
       </c>
       <c r="D52" s="6">
@@ -2623,7 +2774,7 @@
       <c r="B53" s="10">
         <v>40</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="15" t="s">
         <v>103</v>
       </c>
       <c r="D53" s="6"/>
@@ -2638,7 +2789,7 @@
     </row>
     <row r="54" spans="1:8" customHeight="1" ht="34.95">
       <c r="A54"/>
-      <c r="B54" s="10">
+      <c r="B54" s="12">
         <v>41</v>
       </c>
       <c r="C54" s="15" t="s">
@@ -2656,10 +2807,10 @@
     </row>
     <row r="55" spans="1:8" customHeight="1" ht="34.95">
       <c r="A55"/>
-      <c r="B55" s="12">
+      <c r="B55" s="10">
         <v>15</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="11" t="s">
         <v>105</v>
       </c>
       <c r="D55" s="6">
@@ -2678,10 +2829,10 @@
     </row>
     <row r="56" spans="1:8" customHeight="1" ht="34.95">
       <c r="A56"/>
-      <c r="B56" s="10">
+      <c r="B56" s="12">
         <v>43</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="15" t="s">
         <v>108</v>
       </c>
       <c r="D56" s="6"/>
@@ -2696,7 +2847,7 @@
     </row>
     <row r="57" spans="1:8" customHeight="1" ht="34.95">
       <c r="A57"/>
-      <c r="B57" s="12">
+      <c r="B57" s="10">
         <v>44</v>
       </c>
       <c r="C57" s="15" t="s">
@@ -2717,7 +2868,7 @@
       <c r="B58" s="10">
         <v>16</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="11" t="s">
         <v>110</v>
       </c>
       <c r="D58" s="6">
@@ -2739,7 +2890,7 @@
       <c r="B59" s="10">
         <v>46</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="15" t="s">
         <v>113</v>
       </c>
       <c r="D59" s="6"/>
@@ -2754,7 +2905,7 @@
     </row>
     <row r="60" spans="1:8" customHeight="1" ht="34.95">
       <c r="A60"/>
-      <c r="B60" s="10">
+      <c r="B60" s="12">
         <v>47</v>
       </c>
       <c r="C60" s="15" t="s">
@@ -2772,10 +2923,10 @@
     </row>
     <row r="61" spans="1:8" customHeight="1" ht="34.95">
       <c r="A61"/>
-      <c r="B61" s="12">
+      <c r="B61" s="10">
         <v>48</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="11" t="s">
         <v>115</v>
       </c>
       <c r="D61" s="6"/>
@@ -2792,10 +2943,10 @@
     </row>
     <row r="62" spans="1:8" customHeight="1" ht="34.95">
       <c r="A62"/>
-      <c r="B62" s="10">
+      <c r="B62" s="12">
         <v>49</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="15" t="s">
         <v>117</v>
       </c>
       <c r="D62" s="6"/>
@@ -2810,7 +2961,7 @@
     </row>
     <row r="63" spans="1:8" customHeight="1" ht="34.95">
       <c r="A63"/>
-      <c r="B63" s="12">
+      <c r="B63" s="10">
         <v>50</v>
       </c>
       <c r="C63" s="15" t="s">
@@ -2831,7 +2982,7 @@
       <c r="B64" s="10">
         <v>51</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C64" s="11" t="s">
         <v>119</v>
       </c>
       <c r="D64" s="6"/>
@@ -2851,7 +3002,7 @@
       <c r="B65" s="10">
         <v>52</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="15" t="s">
         <v>121</v>
       </c>
       <c r="D65" s="6"/>
@@ -2866,7 +3017,7 @@
     </row>
     <row r="66" spans="1:8" customHeight="1" ht="34.95">
       <c r="A66"/>
-      <c r="B66" s="10">
+      <c r="B66" s="12">
         <v>53</v>
       </c>
       <c r="C66" s="15" t="s">
@@ -2884,10 +3035,10 @@
     </row>
     <row r="67" spans="1:8" customHeight="1" ht="34.95">
       <c r="A67"/>
-      <c r="B67" s="12">
+      <c r="B67" s="10">
         <v>54</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="11" t="s">
         <v>123</v>
       </c>
       <c r="D67" s="6"/>
@@ -2904,10 +3055,10 @@
     </row>
     <row r="68" spans="1:8" customHeight="1" ht="34.95">
       <c r="A68"/>
-      <c r="B68" s="10">
+      <c r="B68" s="12">
         <v>55</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C68" s="15" t="s">
         <v>125</v>
       </c>
       <c r="D68" s="6"/>
@@ -2922,7 +3073,7 @@
     </row>
     <row r="69" spans="1:8" customHeight="1" ht="34.95">
       <c r="A69"/>
-      <c r="B69" s="12">
+      <c r="B69" s="10">
         <v>56</v>
       </c>
       <c r="C69" s="15" t="s">
@@ -2943,7 +3094,7 @@
       <c r="B70" s="10">
         <v>57</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C70" s="11" t="s">
         <v>127</v>
       </c>
       <c r="D70" s="6"/>
@@ -2963,7 +3114,7 @@
       <c r="B71" s="10">
         <v>58</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="15" t="s">
         <v>129</v>
       </c>
       <c r="D71" s="6"/>
@@ -2978,7 +3129,7 @@
     </row>
     <row r="72" spans="1:8" customHeight="1" ht="34.95">
       <c r="A72"/>
-      <c r="B72" s="10">
+      <c r="B72" s="12">
         <v>59</v>
       </c>
       <c r="C72" s="15" t="s">
@@ -2996,10 +3147,10 @@
     </row>
     <row r="73" spans="1:8" customHeight="1" ht="34.95">
       <c r="A73"/>
-      <c r="B73" s="12">
+      <c r="B73" s="10">
         <v>17</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C73" s="11" t="s">
         <v>131</v>
       </c>
       <c r="D73" s="6">
@@ -3018,7 +3169,7 @@
     </row>
     <row r="74" spans="1:8" customHeight="1" ht="34.95">
       <c r="A74"/>
-      <c r="B74" s="10">
+      <c r="B74" s="12">
         <v>18</v>
       </c>
       <c r="C74" s="11" t="s">
@@ -3040,7 +3191,7 @@
     </row>
     <row r="75" spans="1:8" customHeight="1" ht="34.95">
       <c r="A75"/>
-      <c r="B75" s="12">
+      <c r="B75" s="10">
         <v>62</v>
       </c>
       <c r="C75" s="11" t="s">
@@ -3104,7 +3255,7 @@
     </row>
     <row r="78" spans="1:8" customHeight="1" ht="34.95">
       <c r="A78"/>
-      <c r="B78" s="10">
+      <c r="B78" s="12">
         <v>21</v>
       </c>
       <c r="C78" s="11" t="s">
@@ -3126,7 +3277,7 @@
     </row>
     <row r="79" spans="1:8" customHeight="1" ht="34.95">
       <c r="A79"/>
-      <c r="B79" s="12">
+      <c r="B79" s="10">
         <v>22</v>
       </c>
       <c r="C79" s="11" t="s">
@@ -3148,7 +3299,7 @@
     </row>
     <row r="80" spans="1:8" customHeight="1" ht="34.95">
       <c r="A80"/>
-      <c r="B80" s="10">
+      <c r="B80" s="12">
         <v>23</v>
       </c>
       <c r="C80" s="11" t="s">
@@ -3170,7 +3321,7 @@
     </row>
     <row r="81" spans="1:8" customHeight="1" ht="34.95">
       <c r="A81"/>
-      <c r="B81" s="12">
+      <c r="B81" s="10">
         <v>68</v>
       </c>
       <c r="C81" s="11" t="s">
@@ -3210,7 +3361,7 @@
       </c>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" customHeight="1" ht="34.95">
+    <row r="83" spans="1:8" customHeight="1" ht="65.95">
       <c r="A83"/>
       <c r="B83" s="10">
         <v>70</v>
@@ -3228,9 +3379,9 @@
       </c>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" customHeight="1" ht="65.95">
+    <row r="84" spans="1:8" customHeight="1" ht="64.9">
       <c r="A84"/>
-      <c r="B84" s="10">
+      <c r="B84" s="12">
         <v>25</v>
       </c>
       <c r="C84" s="11" t="s">
@@ -3248,9 +3399,9 @@
       </c>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" customHeight="1" ht="64.9">
+    <row r="85" spans="1:8" customHeight="1" ht="66.65">
       <c r="A85"/>
-      <c r="B85" s="12">
+      <c r="B85" s="10">
         <v>72</v>
       </c>
       <c r="C85" s="11" t="s">
@@ -3266,9 +3417,9 @@
       </c>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" customHeight="1" ht="66.65">
+    <row r="86" spans="1:8" customHeight="1" ht="64.9">
       <c r="A86"/>
-      <c r="B86" s="10">
+      <c r="B86" s="12">
         <v>73</v>
       </c>
       <c r="C86" s="11" t="s">
@@ -3284,9 +3435,9 @@
       </c>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" customHeight="1" ht="64.9">
+    <row r="87" spans="1:8" customHeight="1" ht="67.2">
       <c r="A87"/>
-      <c r="B87" s="12">
+      <c r="B87" s="10">
         <v>74</v>
       </c>
       <c r="C87" s="11" t="s">
@@ -3302,7 +3453,7 @@
       </c>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" customHeight="1" ht="67.2">
+    <row r="88" spans="1:8" customHeight="1" ht="65.45">
       <c r="A88"/>
       <c r="B88" s="10">
         <v>75</v>
@@ -3320,7 +3471,7 @@
       </c>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" customHeight="1" ht="65.45">
+    <row r="89" spans="1:8" customHeight="1" ht="64.9">
       <c r="A89"/>
       <c r="B89" s="10">
         <v>76</v>
@@ -3338,9 +3489,9 @@
       </c>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" customHeight="1" ht="64.9">
+    <row r="90" spans="1:8" customHeight="1" ht="63.55">
       <c r="A90"/>
-      <c r="B90" s="10">
+      <c r="B90" s="12">
         <v>77</v>
       </c>
       <c r="C90" s="11" t="s">
@@ -3356,9 +3507,9 @@
       </c>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" customHeight="1" ht="63.55">
+    <row r="91" spans="1:8" customHeight="1" ht="60.2">
       <c r="A91"/>
-      <c r="B91" s="12">
+      <c r="B91" s="10">
         <v>78</v>
       </c>
       <c r="C91" s="11" t="s">
@@ -3374,7 +3525,7 @@
       </c>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" customHeight="1" ht="60.2">
+    <row r="92" spans="1:8" customHeight="1" ht="63.8">
       <c r="A92"/>
       <c r="B92" s="10"/>
       <c r="C92" s="11" t="s">
@@ -3392,7 +3543,7 @@
       </c>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" customHeight="1" ht="63.8">
+    <row r="93" spans="1:8" customHeight="1" ht="65.3">
       <c r="A93"/>
       <c r="B93" s="10"/>
       <c r="C93" s="11" t="s">
@@ -3410,9 +3561,9 @@
       </c>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" customHeight="1" ht="65.3">
+    <row r="94" spans="1:8" customHeight="1" ht="36">
       <c r="A94"/>
-      <c r="B94" s="10">
+      <c r="B94" s="12">
         <v>26</v>
       </c>
       <c r="C94" s="11" t="s">
@@ -3424,7 +3575,7 @@
       <c r="E94" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F94" s="7" t="s">
+      <c r="F94" s="16" t="s">
         <v>172</v>
       </c>
       <c r="G94" s="5" t="s">
@@ -3432,9 +3583,9 @@
       </c>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" customHeight="1" ht="36">
+    <row r="95" spans="1:8" customHeight="1" ht="33.6">
       <c r="A95"/>
-      <c r="B95" s="12">
+      <c r="B95" s="10">
         <v>80</v>
       </c>
       <c r="C95" s="11" t="s">
@@ -3444,13 +3595,13 @@
       <c r="E95" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F95" s="16"/>
+      <c r="F95" s="7"/>
       <c r="G95" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" customHeight="1" ht="33.6">
+    <row r="96" spans="1:8" customHeight="1" ht="49.85">
       <c r="A96"/>
       <c r="B96" s="10">
         <v>81</v>
@@ -3492,7 +3643,7 @@
     </row>
     <row r="98" spans="1:8" customHeight="1" ht="49.85">
       <c r="A98"/>
-      <c r="B98" s="10">
+      <c r="B98" s="12">
         <v>28</v>
       </c>
       <c r="C98" s="11" t="s">
@@ -3514,7 +3665,7 @@
     </row>
     <row r="99" spans="1:8" customHeight="1" ht="49.85">
       <c r="A99"/>
-      <c r="B99" s="12">
+      <c r="B99" s="10">
         <v>84</v>
       </c>
       <c r="C99" s="11" t="s">
@@ -3532,7 +3683,7 @@
     </row>
     <row r="100" spans="1:8" customHeight="1" ht="49.85">
       <c r="A100"/>
-      <c r="B100" s="10">
+      <c r="B100" s="12">
         <v>85</v>
       </c>
       <c r="C100" s="11" t="s">
@@ -3550,7 +3701,7 @@
     </row>
     <row r="101" spans="1:8" customHeight="1" ht="49.85">
       <c r="A101"/>
-      <c r="B101" s="12">
+      <c r="B101" s="10">
         <v>29</v>
       </c>
       <c r="C101" s="11" t="s">
@@ -3570,7 +3721,7 @@
       </c>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" customHeight="1" ht="49.85">
+    <row r="102" spans="1:8" customHeight="1" ht="51.05">
       <c r="A102"/>
       <c r="B102" s="10">
         <v>87</v>
@@ -3608,7 +3759,7 @@
     </row>
     <row r="104" spans="1:8" customHeight="1" ht="51.05">
       <c r="A104"/>
-      <c r="B104" s="10">
+      <c r="B104" s="12">
         <v>89</v>
       </c>
       <c r="C104" s="11" t="s">
@@ -3626,7 +3777,7 @@
     </row>
     <row r="105" spans="1:8" customHeight="1" ht="51.05">
       <c r="A105"/>
-      <c r="B105" s="12">
+      <c r="B105" s="10">
         <v>90</v>
       </c>
       <c r="C105" s="11" t="s">
@@ -3644,7 +3795,7 @@
     </row>
     <row r="106" spans="1:8" customHeight="1" ht="51.05">
       <c r="A106"/>
-      <c r="B106" s="10">
+      <c r="B106" s="12">
         <v>91</v>
       </c>
       <c r="C106" s="11" t="s">
@@ -3662,7 +3813,7 @@
     </row>
     <row r="107" spans="1:8" customHeight="1" ht="51.05">
       <c r="A107"/>
-      <c r="B107" s="12">
+      <c r="B107" s="10">
         <v>92</v>
       </c>
       <c r="C107" s="11" t="s">
@@ -3716,7 +3867,7 @@
     </row>
     <row r="110" spans="1:8" customHeight="1" ht="51.05">
       <c r="A110"/>
-      <c r="B110" s="10">
+      <c r="B110" s="12">
         <v>95</v>
       </c>
       <c r="C110" s="11" t="s">
@@ -3734,7 +3885,7 @@
     </row>
     <row r="111" spans="1:8" customHeight="1" ht="51.05">
       <c r="A111"/>
-      <c r="B111" s="12">
+      <c r="B111" s="10">
         <v>96</v>
       </c>
       <c r="C111" s="11" t="s">
@@ -3752,7 +3903,7 @@
     </row>
     <row r="112" spans="1:8" customHeight="1" ht="51.05">
       <c r="A112"/>
-      <c r="B112" s="10">
+      <c r="B112" s="12">
         <v>97</v>
       </c>
       <c r="C112" s="11" t="s">
@@ -3770,7 +3921,7 @@
     </row>
     <row r="113" spans="1:8" customHeight="1" ht="51.05">
       <c r="A113"/>
-      <c r="B113" s="12">
+      <c r="B113" s="10">
         <v>98</v>
       </c>
       <c r="C113" s="11" t="s">
@@ -3824,7 +3975,7 @@
     </row>
     <row r="116" spans="1:8" customHeight="1" ht="51.05">
       <c r="A116"/>
-      <c r="B116" s="10">
+      <c r="B116" s="12">
         <v>101</v>
       </c>
       <c r="C116" s="11" t="s">
@@ -3842,7 +3993,7 @@
     </row>
     <row r="117" spans="1:8" customHeight="1" ht="51.05">
       <c r="A117"/>
-      <c r="B117" s="12">
+      <c r="B117" s="10">
         <v>102</v>
       </c>
       <c r="C117" s="11" t="s">
@@ -3860,7 +4011,7 @@
     </row>
     <row r="118" spans="1:8" customHeight="1" ht="51.05">
       <c r="A118"/>
-      <c r="B118" s="10">
+      <c r="B118" s="12">
         <v>103</v>
       </c>
       <c r="C118" s="11" t="s">
@@ -3878,7 +4029,7 @@
     </row>
     <row r="119" spans="1:8" customHeight="1" ht="51.05">
       <c r="A119"/>
-      <c r="B119" s="12">
+      <c r="B119" s="10">
         <v>30</v>
       </c>
       <c r="C119" s="11" t="s">
@@ -3940,9 +4091,9 @@
       </c>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" customHeight="1" ht="51.05">
+    <row r="122" spans="1:8" customHeight="1" ht="45.15">
       <c r="A122"/>
-      <c r="B122" s="10">
+      <c r="B122" s="12">
         <v>107</v>
       </c>
       <c r="C122" s="11" t="s">
@@ -3962,7 +4113,7 @@
     </row>
     <row r="123" spans="1:8" customHeight="1" ht="45.15">
       <c r="A123"/>
-      <c r="B123" s="12">
+      <c r="B123" s="10">
         <v>108</v>
       </c>
       <c r="C123" s="11" t="s">
@@ -3980,9 +4131,9 @@
       </c>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" customHeight="1" ht="45.15">
+    <row r="124" spans="1:8" customHeight="1" ht="51.05">
       <c r="A124"/>
-      <c r="B124" s="10">
+      <c r="B124" s="12">
         <v>109</v>
       </c>
       <c r="C124" s="11" t="s">
@@ -4002,7 +4153,7 @@
     </row>
     <row r="125" spans="1:8" customHeight="1" ht="51.05">
       <c r="A125"/>
-      <c r="B125" s="12">
+      <c r="B125" s="10">
         <v>32</v>
       </c>
       <c r="C125" s="11" t="s">
@@ -4044,7 +4195,7 @@
       </c>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" customHeight="1" ht="51.05">
+    <row r="127" spans="1:8" customHeight="1" ht="34.95">
       <c r="A127"/>
       <c r="B127" s="10">
         <v>112</v>
@@ -4064,7 +4215,7 @@
     </row>
     <row r="128" spans="1:8" customHeight="1" ht="34.95">
       <c r="A128"/>
-      <c r="B128" s="10">
+      <c r="B128" s="12">
         <v>113</v>
       </c>
       <c r="C128" s="11" t="s">
@@ -4078,881 +4229,959 @@
       <c r="G128" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="H128"/>
     </row>
     <row r="129" spans="1:8" customHeight="1" ht="34.95">
-      <c r="B129" s="12">
-        <v>113</v>
+      <c r="A129"/>
+      <c r="B129" s="10">
+        <v>34</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="D129" s="6"/>
+        <v>226</v>
+      </c>
+      <c r="D129" s="6">
+        <v>3</v>
+      </c>
       <c r="E129" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F129" s="7"/>
-      <c r="G129" s="5">
-        <f>$D129*F129</f>
-        <v>0</v>
-      </c>
+      <c r="F129" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="H129"/>
     </row>
     <row r="130" spans="1:8" customHeight="1" ht="34.95">
-      <c r="B130" s="10">
-        <v>34</v>
+      <c r="A130"/>
+      <c r="B130" s="12">
+        <v>115</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="D130" s="6">
-        <v>3</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="D130" s="6"/>
       <c r="E130" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F130" s="7">
-        <v>757.98662820906</v>
-      </c>
-      <c r="G130" s="5">
-        <f>$D130*F130</f>
-        <v>2273.9598846272</v>
-      </c>
+      <c r="F130" s="7"/>
+      <c r="G130" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H130"/>
     </row>
     <row r="131" spans="1:8" customHeight="1" ht="34.95">
-      <c r="B131" s="12">
-        <v>115</v>
+      <c r="A131"/>
+      <c r="B131" s="10">
+        <v>116</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D131" s="6"/>
       <c r="E131" s="4" t="s">
         <v>171</v>
       </c>
       <c r="F131" s="7"/>
-      <c r="G131" s="5">
-        <f>$D131*F131</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" customHeight="1" ht="34.95">
+      <c r="G131" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H131"/>
+    </row>
+    <row r="132" spans="1:8" customHeight="1" ht="51.05">
+      <c r="A132"/>
       <c r="B132" s="10">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D132" s="6"/>
       <c r="E132" s="4" t="s">
         <v>171</v>
       </c>
       <c r="F132" s="7"/>
-      <c r="G132" s="5">
-        <f>$D132*F132</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" customHeight="1" ht="51.05">
+      <c r="G132" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H132"/>
+    </row>
+    <row r="133" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A133"/>
       <c r="B133" s="10">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D133" s="6"/>
       <c r="E133" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F133" s="7"/>
-      <c r="G133" s="5">
-        <f>$D133*F133</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" customHeight="1" ht="34.95">
-      <c r="B134" s="10">
-        <v>118</v>
+      <c r="F133" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H133"/>
+    </row>
+    <row r="134" spans="1:8" customHeight="1" ht="45.15">
+      <c r="A134"/>
+      <c r="B134" s="12">
+        <v>35</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="D134" s="6"/>
+        <v>234</v>
+      </c>
+      <c r="D134" s="6">
+        <v>11</v>
+      </c>
       <c r="E134" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F134" s="7">
-        <v>429.61951820906</v>
-      </c>
-      <c r="G134" s="5">
-        <f>$D134*F134</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" customHeight="1" ht="45.15">
-      <c r="B135" s="12">
-        <v>35</v>
+      <c r="F134" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="H134"/>
+    </row>
+    <row r="135" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A135"/>
+      <c r="B135" s="10">
+        <v>36</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D135" s="6">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F135" s="7">
-        <v>3008.3912416463</v>
-      </c>
-      <c r="G135" s="5">
-        <f>$D135*F135</f>
-        <v>33092.303658109</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" customHeight="1" ht="34.95">
-      <c r="B136" s="10">
-        <v>36</v>
+      <c r="F135" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H135"/>
+    </row>
+    <row r="136" spans="1:8" customHeight="1" ht="51.05">
+      <c r="A136"/>
+      <c r="B136" s="12">
+        <v>37</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="D136" s="6">
-        <v>33</v>
+        <v>372</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F136" s="7">
-        <v>1531.7080917674</v>
-      </c>
-      <c r="G136" s="5">
-        <f>$D136*F136</f>
-        <v>50546.367028324</v>
-      </c>
+      <c r="F136" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="H136"/>
     </row>
     <row r="137" spans="1:8" customHeight="1" ht="51.05">
-      <c r="B137" s="12">
-        <v>37</v>
+      <c r="A137"/>
+      <c r="B137" s="10">
+        <v>38</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="D137" s="6">
-        <v>372</v>
+        <v>41</v>
       </c>
       <c r="E137" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F137" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G137" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="H137"/>
+    </row>
+    <row r="138" spans="1:8" customHeight="1" ht="51.05">
+      <c r="A138"/>
+      <c r="B138" s="10">
+        <v>39</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D138" s="6">
+        <v>5</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F138" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="H138"/>
+    </row>
+    <row r="139" spans="1:8" customHeight="1" ht="30.1">
+      <c r="A139"/>
+      <c r="B139" s="10">
+        <v>122</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="D139" s="6"/>
+      <c r="E139" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F137" s="7">
-        <v>879.91035140612</v>
-      </c>
-      <c r="G137" s="5">
-        <f>$D137*F137</f>
-        <v>327326.65072308</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" customHeight="1" ht="51.05">
-      <c r="B138" s="10">
-        <v>38</v>
-      </c>
-      <c r="C138" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="D138" s="6">
-        <v>41</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="F138" s="7">
-        <v>1143.0777334061</v>
-      </c>
-      <c r="G138" s="5">
-        <f>$D138*F138</f>
-        <v>46866.18706965</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" customHeight="1" ht="51.05">
-      <c r="B139" s="10">
-        <v>39</v>
-      </c>
-      <c r="C139" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="D139" s="6">
-        <v>5</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="F139" s="7">
-        <v>1285.3195394061</v>
-      </c>
-      <c r="G139" s="5">
-        <f>$D139*F139</f>
-        <v>6426.5976970305</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" customHeight="1" ht="30.1">
+      <c r="F139" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H139"/>
+    </row>
+    <row r="140" spans="1:8" customHeight="1" ht="45.15">
+      <c r="A140"/>
       <c r="B140" s="10">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="D140" s="6"/>
       <c r="E140" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F140" s="7">
-        <v>235.6769966913</v>
-      </c>
-      <c r="G140" s="5">
-        <f>$D140*F140</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" customHeight="1" ht="45.15">
+      <c r="F140" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H140"/>
+    </row>
+    <row r="141" spans="1:8" customHeight="1" ht="34.15">
+      <c r="A141"/>
       <c r="B141" s="10">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="D141" s="6"/>
+        <v>254</v>
+      </c>
+      <c r="D141" s="6">
+        <v>418</v>
+      </c>
       <c r="E141" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F141" s="7">
-        <v>406.8574130773</v>
-      </c>
-      <c r="G141" s="5">
-        <f>$D141*F141</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" customHeight="1" ht="34.15">
+      <c r="F141" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G141" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="H141"/>
+    </row>
+    <row r="142" spans="1:8" customHeight="1" ht="45.15">
+      <c r="A142"/>
       <c r="B142" s="10">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="D142" s="6">
-        <v>418</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="D142" s="6"/>
       <c r="E142" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F142" s="7">
-        <v>96.136613294725</v>
-      </c>
-      <c r="G142" s="5">
-        <f>$D142*F142</f>
-        <v>40185.104357195</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" customHeight="1" ht="45.15">
-      <c r="B143" s="10">
-        <v>124</v>
+      <c r="F142" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H142"/>
+    </row>
+    <row r="143" spans="1:8" customHeight="1" ht="30.1">
+      <c r="A143"/>
+      <c r="B143" s="12">
+        <v>125</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="D143" s="6"/>
       <c r="E143" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F143" s="7">
-        <v>1478.9022372179</v>
-      </c>
-      <c r="G143" s="5">
-        <f>$D143*F143</f>
-        <v>0</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="F143" s="7"/>
+      <c r="G143" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H143"/>
     </row>
     <row r="144" spans="1:8" customHeight="1" ht="30.1">
-      <c r="B144" s="12">
-        <v>125</v>
+      <c r="A144"/>
+      <c r="B144" s="10">
+        <v>126</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="D144" s="6"/>
       <c r="E144" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="F144" s="7"/>
-      <c r="G144" s="5">
-        <f>$D144*F144</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" customHeight="1" ht="30.1">
-      <c r="B145" s="10">
-        <v>126</v>
+        <v>20</v>
+      </c>
+      <c r="F144" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H144"/>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="1"/>
+      <c r="B145" s="12">
+        <v>41</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="D145" s="6"/>
+        <v>263</v>
+      </c>
+      <c r="D145" s="6">
+        <v>37</v>
+      </c>
       <c r="E145" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F145" s="7">
-        <v>2330.7612086809</v>
-      </c>
-      <c r="G145" s="5">
-        <f>$D145*F145</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="B146" s="12">
-        <v>41</v>
+        <v>20</v>
+      </c>
+      <c r="F145" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G145" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="H145" s="1"/>
+    </row>
+    <row r="146" spans="1:8" customHeight="1" ht="18">
+      <c r="A146"/>
+      <c r="B146" s="10">
+        <v>42</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="D146" s="6">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F146" s="7">
-        <v>1622.2451130307</v>
-      </c>
-      <c r="G146" s="5">
-        <f>$D146*F146</f>
-        <v>60023.069182136</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="F146" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="H146"/>
     </row>
     <row r="147" spans="1:8" customHeight="1" ht="18">
+      <c r="A147"/>
       <c r="B147" s="10">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="D147" s="6">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F147" s="7">
-        <v>153.37231868022</v>
-      </c>
-      <c r="G147" s="5">
-        <f>$D147*F147</f>
-        <v>5214.6588351275</v>
-      </c>
+      <c r="F147" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G147" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="H147"/>
     </row>
     <row r="148" spans="1:8" customHeight="1" ht="18">
+      <c r="A148"/>
       <c r="B148" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="D148" s="6">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F148" s="7">
-        <v>204.42964619074</v>
-      </c>
-      <c r="G148" s="5">
-        <f>$D148*F148</f>
-        <v>4906.3115085778</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" customHeight="1" ht="18">
-      <c r="B149" s="10">
-        <v>44</v>
+      <c r="F148" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G148" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="H148"/>
+    </row>
+    <row r="149" spans="1:8" customHeight="1" ht="51.05">
+      <c r="A149"/>
+      <c r="B149" s="12">
+        <v>45</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="D149" s="6">
-        <v>68</v>
+        <v>275</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>276</v>
       </c>
       <c r="E149" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F149" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G149" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="H149"/>
+    </row>
+    <row r="150" spans="1:8" customHeight="1" ht="51.05">
+      <c r="A150"/>
+      <c r="B150" s="10">
+        <v>46</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D150" s="6">
+        <v>20</v>
+      </c>
+      <c r="E150" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F149" s="7">
-        <v>132.75906833478</v>
-      </c>
-      <c r="G149" s="5">
-        <f>$D149*F149</f>
-        <v>9027.616646765</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" customHeight="1" ht="51.05">
-      <c r="B150" s="12">
-        <v>45</v>
-      </c>
-      <c r="C150" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="D150" s="6">
-        <v>1365</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="F150" s="7">
-        <v>13.674443125137</v>
-      </c>
-      <c r="G150" s="5">
-        <f>$D150*F150</f>
-        <v>18665.614865812</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" customHeight="1" ht="51.05">
-      <c r="B151" s="10">
-        <v>46</v>
+      <c r="F150" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="H150"/>
+    </row>
+    <row r="151" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A151"/>
+      <c r="B151" s="12">
+        <v>47</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="D151" s="6">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F151" s="7">
-        <v>259.6190729826</v>
-      </c>
-      <c r="G151" s="5">
-        <f>$D151*F151</f>
-        <v>5192.381459652</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" customHeight="1" ht="34.95">
-      <c r="B152" s="12">
-        <v>47</v>
+      <c r="F151" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G151" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="H151"/>
+    </row>
+    <row r="152" spans="1:8" customHeight="1" ht="47.3">
+      <c r="A152"/>
+      <c r="B152" s="10">
+        <v>48</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="D152" s="6">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F152" s="7">
-        <v>1855.778581378</v>
-      </c>
-      <c r="G152" s="5">
-        <f>$D152*F152</f>
-        <v>5567.335744134</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" customHeight="1" ht="47.3">
+        <v>31</v>
+      </c>
+      <c r="F152" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G152" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="H152"/>
+    </row>
+    <row r="153" spans="1:8" customHeight="1" ht="45.15">
+      <c r="A153"/>
       <c r="B153" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>252</v>
+        <v>289</v>
       </c>
       <c r="D153" s="6">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F153" s="7">
-        <v>518.98524900278</v>
-      </c>
-      <c r="G153" s="5">
-        <f>$D153*F153</f>
-        <v>6746.8082370361</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" customHeight="1" ht="45.15">
+        <v>290</v>
+      </c>
+      <c r="F153" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G153" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="H153"/>
+    </row>
+    <row r="154" spans="1:8" customHeight="1" ht="30.1">
+      <c r="A154"/>
       <c r="B154" s="10">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D154" s="6">
+        <v>10</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F154" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G154" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="H154"/>
+    </row>
+    <row r="155" spans="1:8" customHeight="1" ht="30.1">
+      <c r="A155"/>
+      <c r="B155" s="12">
+        <v>51</v>
+      </c>
+      <c r="C155" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="D155" s="6">
+        <v>19</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F155" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G155" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="H155"/>
+    </row>
+    <row r="156" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A156"/>
+      <c r="B156" s="10">
+        <v>138</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="D156" s="6"/>
+      <c r="E156" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F156" s="7"/>
+      <c r="G156" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H156"/>
+    </row>
+    <row r="157" spans="1:8" customHeight="1" ht="18">
+      <c r="A157"/>
+      <c r="B157" s="12">
+        <v>52</v>
+      </c>
+      <c r="C157" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="D157" s="6">
         <v>1</v>
       </c>
-      <c r="E154" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="F154" s="7">
-        <v>9237.9566828314</v>
-      </c>
-      <c r="G154" s="5">
-        <f>$D154*F154</f>
-        <v>9237.9566828314</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" customHeight="1" ht="30.1">
-      <c r="B155" s="10">
-        <v>50</v>
-      </c>
-      <c r="C155" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="D155" s="6">
-        <v>10</v>
-      </c>
-      <c r="E155" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="F155" s="7">
-        <v>1229.8077085186</v>
-      </c>
-      <c r="G155" s="5">
-        <f>$D155*F155</f>
-        <v>12298.077085186</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" customHeight="1" ht="30.1">
-      <c r="B156" s="12">
-        <v>51</v>
-      </c>
-      <c r="C156" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="D156" s="6">
-        <v>19</v>
-      </c>
-      <c r="E156" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F156" s="7">
-        <v>238.0140095192</v>
-      </c>
-      <c r="G156" s="5">
-        <f>$D156*F156</f>
-        <v>4522.2661808648</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" customHeight="1" ht="34.95">
-      <c r="B157" s="10">
-        <v>138</v>
-      </c>
-      <c r="C157" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="D157" s="6"/>
       <c r="E157" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F157" s="7"/>
-      <c r="G157" s="5">
-        <f>$D157*F157</f>
-        <v>0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F157" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G157" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="H157"/>
     </row>
     <row r="158" spans="1:8" customHeight="1" ht="18">
-      <c r="B158" s="12">
-        <v>52</v>
+      <c r="A158"/>
+      <c r="B158" s="10">
+        <v>53</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="D158" s="6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F158" s="7">
-        <v>970.74427302625</v>
-      </c>
-      <c r="G158" s="5">
-        <f>$D158*F158</f>
-        <v>970.74427302625</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="F158" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G158" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="H158"/>
     </row>
     <row r="159" spans="1:8" customHeight="1" ht="18">
+      <c r="A159"/>
       <c r="B159" s="10">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="D159" s="6">
-        <v>9</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="D159" s="6"/>
       <c r="E159" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="F159" s="7">
-        <v>328.05201885966</v>
-      </c>
-      <c r="G159" s="5">
-        <f>$D159*F159</f>
-        <v>2952.4681697369</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F159" s="7"/>
+      <c r="G159" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H159"/>
     </row>
     <row r="160" spans="1:8" customHeight="1" ht="18">
+      <c r="A160"/>
       <c r="B160" s="10">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>262</v>
+        <v>307</v>
       </c>
       <c r="D160" s="6"/>
       <c r="E160" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F160" s="7"/>
-      <c r="G160" s="5">
-        <f>$D160*F160</f>
-        <v>0</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="F160" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G160" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H160"/>
     </row>
     <row r="161" spans="1:8" customHeight="1" ht="18">
-      <c r="B161" s="10">
-        <v>142</v>
+      <c r="A161"/>
+      <c r="B161" s="12">
+        <v>143</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>263</v>
+        <v>309</v>
       </c>
       <c r="D161" s="6"/>
       <c r="E161" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F161" s="7">
-        <v>328.2561367391</v>
-      </c>
-      <c r="G161" s="5">
-        <f>$D161*F161</f>
-        <v>0</v>
-      </c>
+      <c r="F161" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G161" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H161"/>
     </row>
     <row r="162" spans="1:8" customHeight="1" ht="18">
-      <c r="B162" s="12">
-        <v>143</v>
+      <c r="A162"/>
+      <c r="B162" s="10">
+        <v>144</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>264</v>
+        <v>311</v>
       </c>
       <c r="D162" s="6"/>
       <c r="E162" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F162" s="7">
-        <v>569.21126503885</v>
-      </c>
-      <c r="G162" s="5">
-        <f>$D162*F162</f>
-        <v>0</v>
-      </c>
+      <c r="F162" s="7"/>
+      <c r="G162" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H162"/>
     </row>
     <row r="163" spans="1:8" customHeight="1" ht="18">
-      <c r="B163" s="10">
-        <v>144</v>
+      <c r="A163"/>
+      <c r="B163" s="12">
+        <v>145</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>265</v>
+        <v>312</v>
       </c>
       <c r="D163" s="6"/>
       <c r="E163" s="4" t="s">
         <v>171</v>
       </c>
       <c r="F163" s="7"/>
-      <c r="G163" s="5">
-        <f>$D163*F163</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" customHeight="1" ht="18">
-      <c r="B164" s="12">
-        <v>145</v>
+      <c r="G163" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H163"/>
+    </row>
+    <row r="164" spans="1:8" customHeight="1" ht="24.05">
+      <c r="A164"/>
+      <c r="B164" s="10">
+        <v>54</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="D164" s="6"/>
+        <v>313</v>
+      </c>
+      <c r="D164" s="6">
+        <v>9</v>
+      </c>
       <c r="E164" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F164" s="7"/>
-      <c r="G164" s="5">
-        <f>$D164*F164</f>
-        <v>0</v>
-      </c>
+      <c r="F164" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G164" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="H164"/>
     </row>
     <row r="165" spans="1:8" customHeight="1" ht="24.05">
+      <c r="A165"/>
       <c r="B165" s="10">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="D165" s="6">
-        <v>9</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="D165" s="6"/>
       <c r="E165" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F165" s="7">
-        <v>855.7423415391</v>
-      </c>
-      <c r="G165" s="5">
-        <f>$D165*F165</f>
-        <v>7701.6810738519</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" customHeight="1" ht="24.05">
+      <c r="F165" s="7"/>
+      <c r="G165" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H165"/>
+    </row>
+    <row r="166" spans="1:8" customHeight="1" ht="25.55">
+      <c r="A166"/>
       <c r="B166" s="10">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>268</v>
+        <v>317</v>
       </c>
       <c r="D166" s="6"/>
       <c r="E166" s="4" t="s">
         <v>171</v>
       </c>
       <c r="F166" s="7"/>
-      <c r="G166" s="5">
-        <f>$D166*F166</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" customHeight="1" ht="25.55">
-      <c r="B167" s="10">
-        <v>148</v>
+      <c r="G166" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H166"/>
+    </row>
+    <row r="167" spans="1:8" customHeight="1" ht="34.95">
+      <c r="A167"/>
+      <c r="B167" s="12">
+        <v>55</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="D167" s="6"/>
+        <v>318</v>
+      </c>
+      <c r="D167" s="6">
+        <v>11</v>
+      </c>
       <c r="E167" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F167" s="7"/>
-      <c r="G167" s="5">
-        <f>$D167*F167</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" customHeight="1" ht="34.95">
-      <c r="B168" s="12">
-        <v>55</v>
+        <v>61</v>
+      </c>
+      <c r="F167" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G167" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="H167"/>
+    </row>
+    <row r="168" spans="1:8" customHeight="1" ht="45.15">
+      <c r="A168"/>
+      <c r="B168" s="10">
+        <v>150</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="D168" s="6">
-        <v>11</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="D168" s="6"/>
       <c r="E168" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F168" s="7">
-        <v>510.08335159586</v>
-      </c>
-      <c r="G168" s="5">
-        <f>$D168*F168</f>
-        <v>5610.9168675545</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F168" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G168" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H168"/>
     </row>
     <row r="169" spans="1:8" customHeight="1" ht="45.15">
-      <c r="B169" s="10">
-        <v>150</v>
+      <c r="A169"/>
+      <c r="B169" s="12">
+        <v>151</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>271</v>
+        <v>323</v>
       </c>
       <c r="D169" s="6"/>
       <c r="E169" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F169" s="7">
-        <v>9161.5827936035</v>
-      </c>
-      <c r="G169" s="5">
-        <f>$D169*F169</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" customHeight="1" ht="45.15">
-      <c r="B170" s="12">
-        <v>151</v>
+        <v>20</v>
+      </c>
+      <c r="F169" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G169" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H169"/>
+    </row>
+    <row r="170" spans="1:8" customHeight="1" ht="30.1">
+      <c r="A170"/>
+      <c r="B170" s="10">
+        <v>152</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>272</v>
+        <v>325</v>
       </c>
       <c r="D170" s="6"/>
       <c r="E170" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F170" s="7">
-        <v>9161.5853187569</v>
-      </c>
-      <c r="G170" s="5">
-        <f>$D170*F170</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" customHeight="1" ht="30.1">
-      <c r="B171" s="10">
-        <v>152</v>
-      </c>
-      <c r="C171" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="D171" s="6"/>
-      <c r="E171" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F171" s="7"/>
-      <c r="G171" s="5">
-        <f>$D171*F171</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" customHeight="1" ht="42.75">
-      <c r="B172" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="C172" s="22"/>
-      <c r="D172" s="22"/>
-      <c r="E172" s="22"/>
-      <c r="F172" s="22"/>
-      <c r="G172" s="13" t="e">
-        <f>SUM(G9:G171)</f>
+      <c r="F170" s="7"/>
+      <c r="G170" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H170"/>
+    </row>
+    <row r="171" spans="1:8" customHeight="1" ht="42.75">
+      <c r="A171"/>
+      <c r="B171" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="C171" s="18" t="e">
         <v>#VALUE!</v>
       </c>
+      <c r="D171" s="18"/>
+      <c r="E171" s="18"/>
+      <c r="F171" s="18"/>
+      <c r="G171" s="13" t="e">
+        <f>SUM(G8:G170)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1"/>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1"/>
+      <c r="H173" s="1"/>
     </row>
     <row r="174" spans="1:8">
-      <c r="C174" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
-      <c r="C178" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>278</v>
-      </c>
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+      <c r="H174" s="1"/>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1"/>
+      <c r="H175" s="1"/>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="1"/>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
+      <c r="H177" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="C8:F172"/>
+  <autoFilter ref="C7:F171"/>
   <mergeCells>
-    <mergeCell ref="F2:G3"/>
-    <mergeCell ref="B172:F172"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:E7"/>
-    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="B171:F171"/>
+    <mergeCell ref="C6:E6"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F4:G4"/>
@@ -4960,7 +5189,7 @@
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B2:E2"/>
   </mergeCells>
-  <conditionalFormatting sqref="G9:G171">
+  <conditionalFormatting sqref="G8:G170">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal" stopIfTrue="1">
       <formula>""""""</formula>
     </cfRule>
